--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14310402-1F27-4452-8CA7-DAB45CFC76B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9055D7C-B775-4F9A-B9AB-B10380708A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="2" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
     <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId2"/>
     <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId3"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId4"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -903,6 +905,511 @@
     <t>必要になる処理</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示するだけで良い</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイとランキング表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>片方を選択出来る用に</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されていないほうのα値を下げる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ選択時にエンターでモード選択画面へ</t>
+    <rPh sb="3" eb="6">
+      <t>センタクトキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング選択時にエンターでrankingselect.cppへ</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードと悪透モード表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されたほうのランキング画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○ボタンで戻るなどのUIを3種類ほど表示</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayMode.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人、2人、3人、4人の４種類表示</t>
+    <rPh sb="4" eb="5">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーソル移動処理</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されていないもののα値を下げる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人、2人、3人選択時チュートリアル画面へ</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4人選択時PlayModeSelect.cppへ</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センタクトキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cppの書き方は自分の見やすいと思う書き方で(大文字小文字とか)</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cppの書き方は自分の見やすいと思う書き方で(大文字小文字とか)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードと悪透モードの2種類表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されたモードのゲーム画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数選択時にカーソルにあるぶんの人数を背景に表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既定の位置に立たせて置く</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待機モーションをさせる</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>余裕があればやりたい処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージの入口付近の配置を背景として表示する</t>
+    <rPh sb="5" eb="9">
+      <t>イリグチフキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tutorial.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー待機中に説明表示</t>
+    <rPh sb="5" eb="8">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー行動中にα値を下げて説明表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>アルファアタイヲサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが項目達成時に次の説明へ</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明を4種類ほど準備し順番に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定キー入力でプレイヤーを行動状態へ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが項目達成時にプレイヤーを待機状態へ</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exit.cpp・出口</t>
+    <rPh sb="9" eb="11">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tutorialUI.cpp・チュートリアルUI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>player.cpp・プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object00.cpp・オブジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayModeUI.cpp・モード選択UI</t>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayNumberSelect.cpp・プレイ人数選択</t>
+    <rPh sb="24" eb="26">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayModeSelect.cpp・プレイモード選択</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>titleBG.cpp・タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>titleselect.cpp・タイトル選択</t>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rankingselect.cpp・ランキング選択</t>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当たり判定処理</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
@@ -1204,7 +1711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,6 +1831,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1667,34 +2177,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -1738,7 +2248,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -1746,7 +2256,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -2729,29 +3239,311 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
-  <dimension ref="E5:F5"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.69921875" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>110</v>
       </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
+  <dimension ref="B3:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9055D7C-B775-4F9A-B9AB-B10380708A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4D60A-B95D-47A9-A8E2-A4D29DF728E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="2" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
     <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId2"/>
-    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId3"/>
-    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId4"/>
-    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId5"/>
+    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId3"/>
+    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId4"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId5"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="211">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -1413,6 +1414,849 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動処理</t>
+    <rPh sb="0" eb="4">
+      <t>イドウショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>忍び足処理</t>
+    <rPh sb="0" eb="1">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュ処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュ時のスタミナ処理</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテム入手処理</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテム使用処理</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>視点移動処理</t>
+    <rPh sb="0" eb="4">
+      <t>シテンイドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Enemy.cpp・敵</t>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stamina.cpp・スタミナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーダッシュ時に減らす</t>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左右に伸び縮みするゲージ形式で表示</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>０になったときダッシュできないようにする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵をもってるか否かの判断</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵を持っていたら脱出</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵を持っていなかったら反応しない</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現処理・使用可能であることを可視化する</t>
+    <rPh sb="0" eb="4">
+      <t>シュツゲンショリ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消滅処理・使用不能状態</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透明モードと悪透モードでステートをかえる</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巡回状態と追跡状態のステート分け</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンカイジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ツイセキジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正面にプレイヤーが存在するときに追跡状態にする</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーを追いかける処理</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが視界から消えた時にまがった位置とまがった方向を記憶する処理</t>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左右に視点を動かしたときに視界内にプレイヤーがいない場合巡回状態へ戻す</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前と左右の３方向に触覚のような判定を常に出して2方向にオブジェクトが存在しないときにルート選択処理を行う</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショッカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┛</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どっちか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if(pos.x % 100 = 0)のように一定距離ごとにルート選択処理を行う</t>
+    <rPh sb="23" eb="27">
+      <t>イッテイキョリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルート選択処理時に範囲内にプレイヤーがいる時プレイヤーの位置に近い方向へ曲がる処理</t>
+    <rPh sb="3" eb="7">
+      <t>センタクショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルート選択処理時に近くに敵が存在している時敵のいない方向へ曲がる処理</t>
+    <rPh sb="3" eb="7">
+      <t>センタクショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーと敵の距離による円の索敵処理</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>索敵範囲内にプレイヤーがいた場合プレイヤーかオブジェクトにぶつかるまでサーチ処理を伸ばす</t>
+    <rPh sb="0" eb="2">
+      <t>サクテキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直線(円の判定)</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X方向の処理をした後にZ方向の処理を行う</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z方向の処理をした後にX方向の処理を行う</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーチ処理イメージ案</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動不能処理</t>
+    <rPh sb="0" eb="4">
+      <t>コウドウフノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動状態のステートを[忍び足][通常][走り]で作成</t>
+    <rPh sb="0" eb="4">
+      <t>イドウジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スティックを倒しつつダッシュボタンを入力すると走りになる</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵が足元にある状態でアクションボタン入力で拾える</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵所持をTRUEに</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵を所持しているかのbool作成</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鍵所持がTRUEの時出口付近でアクションボタンで脱出</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>脱出時プレイヤーの操作を無効に</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵との当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵と当たった時ライフを減らす</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの状態のステートを[待機][通常][ダメージ][死亡]で作成</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフが減った時残りライフが０の時プレイヤーを[死亡]状態にする</t>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スティックを少し入れると[忍び足]になる</t>
+    <rPh sb="6" eb="7">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スティックを倒しきると[通常]になる</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[ダッシュ]時にスタミナを減らす</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームが始まる前の余韻を[待機]状態に</t>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームが始まると[通常]状態に</t>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダメージ状態から一定時間経過で[待機]状態へ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="14">
+      <t>イッテイジカンケイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵と当たった時プレイヤーを[ダメージ]状態にする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵が索敵範囲にいる場合壁越しでもバイブレーションを行う</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カベゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1421,7 +2265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,8 +2314,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1529,6 +2381,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +2581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1841,12 +2711,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1856,6 +2749,726 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A6665B-9106-4C27-9D63-60525CD97788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11193780" y="1386840"/>
+          <a:ext cx="594360" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C83129-CDC9-4588-A4F2-0A53369C6DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10949940" y="914400"/>
+          <a:ext cx="1973580" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A12E491-AC0B-4D8F-A0B8-FE3ABB234519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11155680" y="4000500"/>
+          <a:ext cx="632460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9744DB-A22E-4ACA-AFD1-67BA98964CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10949940" y="914400"/>
+          <a:ext cx="1973580" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C051C235-B37D-45F3-BF6E-E1CE5AF4DF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11910060" y="5394960"/>
+          <a:ext cx="7620" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171788C8-EA97-4790-BD7C-3C3888A32F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10949940" y="914400"/>
+          <a:ext cx="1973580" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F936168-5708-44E1-BA78-FBB08A6EC66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11049000" y="5364480"/>
+          <a:ext cx="830580" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FA1320-511E-4756-8985-4BACD0CB33CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11826240" y="5280660"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EAB1A0-E6B8-46A4-8557-472DCDAE552F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10988040" y="5295900"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E5D3F1-183B-4191-AA28-A1ACEC898748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="3931920"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECECF02-EAB6-402E-B8DB-C13B4663A45D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11117580" y="3413760"/>
+          <a:ext cx="7620" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896F2436-FF0D-4434-9284-9C9F1708AC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11635740" y="1714500"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3238,11 +4851,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
+  <dimension ref="B4:S33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="101.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="3.69921875" customWidth="1"/>
+    <col min="19" max="19" width="57.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="51" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="I11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="S12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="S13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="S16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G17" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="S17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G19" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="I21" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="I22" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="S23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="S24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="S25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="S26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G28" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G30" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="G31" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="44"/>
+      <c r="K31" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="I32" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I33" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3334,11 +5317,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3455,12 +5438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
-  <dimension ref="B3:F14"/>
+  <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3505,6 +5488,9 @@
       <c r="D6" t="s">
         <v>140</v>
       </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
       <c r="F6" t="s">
         <v>153</v>
       </c>
@@ -3513,30 +5499,92 @@
       <c r="D7" t="s">
         <v>137</v>
       </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>141</v>
       </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>138</v>
       </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>142</v>
       </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D14" s="3" t="s">
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="3" t="s">
         <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3545,5 +5593,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4D60A-B95D-47A9-A8E2-A4D29DF728E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6304CA0-135C-4D55-A815-BEF14B90278F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -2705,12 +2705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2728,6 +2722,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:O83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -3790,34 +3790,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -3861,7 +3861,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="42"/>
+      <c r="B15" s="48"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -4510,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4854,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4884,7 +4884,7 @@
       <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>187</v>
       </c>
       <c r="S6" t="s">
@@ -4895,19 +4895,19 @@
       <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S7" t="s">
@@ -4918,13 +4918,13 @@
       <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="47" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
@@ -4935,17 +4935,17 @@
       <c r="B9" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="47" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S9" t="s">
@@ -4959,11 +4959,11 @@
       <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="47" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S10" t="s">
@@ -4977,14 +4977,14 @@
       <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="I11" s="47" t="s">
+      <c r="D11" s="41"/>
+      <c r="I11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S11" t="s">
@@ -5036,7 +5036,7 @@
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="46" t="s">
         <v>188</v>
       </c>
       <c r="S17" t="s">
@@ -5044,19 +5044,19 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S18" t="s">
@@ -5064,13 +5064,13 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="47" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S19" t="s">
@@ -5078,17 +5078,17 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="47" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S20" t="s">
@@ -5098,11 +5098,11 @@
     <row r="21" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="47" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S21" t="s">
@@ -5112,13 +5112,13 @@
     <row r="22" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S22" t="s">
@@ -5146,77 +5146,78 @@
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="46" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="47" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="47" t="s">
+      <c r="J31" s="42"/>
+      <c r="K31" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="44"/>
-      <c r="K32" s="47" t="s">
+      <c r="J32" s="42"/>
+      <c r="K32" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="45" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5239,11 +5240,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -5336,11 +5337,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -5456,11 +5457,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14310402-1F27-4452-8CA7-DAB45CFC76B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964244A5-4A6C-44B9-A3F9-ADFF315B92EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
     <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId2"/>
     <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId3"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId4"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -907,6 +909,515 @@
     <rPh sb="5" eb="7">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示するだけで良い</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイとランキング表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>片方を選択出来る用に</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されていないほうのα値を下げる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ選択時にエンターでモード選択画面へ</t>
+    <rPh sb="3" eb="6">
+      <t>センタクトキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング選択時にエンターでrankingselect.cppへ</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードと悪透モード表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されたほうのランキング画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○ボタンで戻るなどのUIを3種類ほど表示</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayMode.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人、2人、3人、4人の４種類表示</t>
+    <rPh sb="4" eb="5">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーソル移動処理</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されていないもののα値を下げる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人、2人、3人選択時チュートリアル画面へ</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4人選択時PlayModeSelect.cppへ</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センタクトキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cppの書き方は自分の見やすいと思う書き方で(大文字小文字とか)</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cppの書き方は自分の見やすいと思う書き方で(大文字小文字とか)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードと悪透モードの2種類表示</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択されたモードのゲーム画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数選択時にカーソルにあるぶんの人数を背景に表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既定の位置に立たせて置く</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待機モーションをさせる</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>余裕があればやりたい処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージの入口付近の配置を背景として表示する</t>
+    <rPh sb="5" eb="9">
+      <t>イリグチフキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tutorial.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー待機中に説明表示</t>
+    <rPh sb="5" eb="8">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー行動中にα値を下げて説明表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>アルファアタイヲサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが項目達成時に次の説明へ</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明を4種類ほど準備し順番に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定キー入力でプレイヤーを行動状態へ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが項目達成時にプレイヤーを待機状態へ</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exit.cpp・出口</t>
+    <rPh sb="9" eb="11">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tutorialUI.cpp・チュートリアルUI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>player.cpp・プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object00.cpp・オブジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayModeUI.cpp・モード選択UI</t>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayNumberSelect.cpp・プレイ人数選択</t>
+    <rPh sb="24" eb="26">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayModeSelect.cpp・プレイモード選択</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>titleBG.cpp・タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>titleselect.cpp・タイトル選択</t>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rankingselect.cpp・ランキング選択</t>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当たり判定処理</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>debb</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1204,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,6 +1835,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:O83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1667,34 +2181,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -1738,7 +2252,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -1746,7 +2260,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2628,7 @@
     <row r="65" spans="4:15" x14ac:dyDescent="0.45">
       <c r="E65" s="2"/>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="8"/>
@@ -2387,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2729,29 +3243,311 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
-  <dimension ref="E5:F5"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.69921875" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>110</v>
       </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
+  <dimension ref="B3:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6304CA0-135C-4D55-A815-BEF14B90278F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A513994-EDCD-4CBE-A8F4-1DA4BAB0D410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
-    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId2"/>
-    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId3"/>
-    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId4"/>
-    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId5"/>
-    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId6"/>
+    <sheet name="マップ制作案" sheetId="7" r:id="rId2"/>
+    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId3"/>
+    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId4"/>
+    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId5"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId6"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="240">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -195,13 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>薬品</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>窓</t>
     <rPh sb="0" eb="1">
       <t>マド</t>
@@ -217,16 +211,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>薬品をいれる棚</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>培養液のタンク</t>
     <rPh sb="0" eb="3">
       <t>バイヨウエキ</t>
@@ -553,13 +537,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生物保管施設イメージ</t>
-    <rPh sb="0" eb="6">
-      <t>セイブツホカンシセツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会議室イメージ</t>
     <rPh sb="0" eb="3">
       <t>カイギシツ</t>
@@ -604,13 +581,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BGM</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1610,35 +1580,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>巡回状態と追跡状態のステート分け</t>
-    <rPh sb="0" eb="4">
-      <t>ジュンカイジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ツイセキジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正面にプレイヤーが存在するときに追跡状態にする</t>
-    <rPh sb="0" eb="2">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイセキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プレイヤーを追いかける処理</t>
     <rPh sb="6" eb="7">
       <t>オ</t>
@@ -1674,37 +1615,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>左右に視点を動かしたときに視界内にプレイヤーがいない場合巡回状態へ戻す</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>前と左右の３方向に触覚のような判定を常に出して2方向にオブジェクトが存在しないときにルート選択処理を行う</t>
     <rPh sb="0" eb="1">
       <t>マエ</t>
@@ -2257,6 +2167,536 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生物収容所</t>
+    <rPh sb="0" eb="2">
+      <t>セイブツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死体を処置する場所</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>崩壊エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生物収容所</t>
+    <rPh sb="0" eb="5">
+      <t>セイブツシュウヨウジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>崩壊エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリアC
+（生物収容所）</t>
+    <rPh sb="6" eb="11">
+      <t>セイブツシュウヨウジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>科学室</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬品をいれる棚(大きめ)</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>瓶の並ぶ大きめの黒テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ビン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>科学室イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸椅子</t>
+    <rPh sb="0" eb="3">
+      <t>マルイス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬品棚</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクヒンタナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生物保管施設イメージ(培養液)</t>
+    <rPh sb="0" eb="6">
+      <t>セイブツホカンシセツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>バイヨウエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作パネル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生物収容施設</t>
+    <rPh sb="0" eb="2">
+      <t>セイブツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>牢屋</t>
+    <rPh sb="0" eb="2">
+      <t>ロウヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小動物を入れたケースの壁</t>
+    <rPh sb="0" eb="3">
+      <t>ショウドウブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動している方向を向く処理又は向いている方向に移動する処理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正面にプレイヤーが存在するときに[追跡]状態にする</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左右に視点を動かしたときに視界内にプレイヤーがいない場合[巡回]状態へ戻す</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに当たった場合[攻撃]状態にする</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の状態のステートを[停止][巡回][追跡][攻撃]で作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[停止]状態の時は移動しないが向きを変えることは出来る</t>
+    <rPh sb="1" eb="3">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※[停止]状態の時も当たり判定は出す</t>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[巡回]状態のときに移動する</t>
+    <rPh sb="1" eb="3">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[追跡]状態のときは移動速度を上げる</t>
+    <rPh sb="1" eb="3">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動時の速度は[巡回]のときプレイヤーの[通常]の速度、[追跡]のときプレイヤーの[走り]の速度(調整する可能性あり</t>
+    <rPh sb="0" eb="3">
+      <t>イドウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[攻撃]状態のとき当たり判定を消す</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[攻撃]状態が終わったときランダムで既定の位置にワープする</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダムな位置のrand()設定時、既定の位置の近くにプレイヤーがいた場合もう一度rand()をまわす</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワープ終了時、敵の状態ステートを[攻撃]状態から[停止]または[追跡]状態にする</t>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリアD
+（崩壊エリア）</t>
+    <rPh sb="6" eb="8">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死体処理所</t>
+    <rPh sb="0" eb="5">
+      <t>シタイショリジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーシートに包まれた箱</t>
+    <rPh sb="7" eb="8">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2323,7 +2763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2362,12 +2802,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2399,6 +2833,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,7 +3027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2645,9 +3091,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2657,19 +3100,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2678,10 +3121,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -2708,13 +3151,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2728,6 +3171,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2752,6 +3234,341 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE03D942-7763-4FD6-A2E8-7F457440E9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8570259" y="7530353"/>
+          <a:ext cx="3406588" cy="2097742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4555BFAF-9ED4-40D1-8447-3EC1B10862AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12138213" y="7521390"/>
+          <a:ext cx="3675529" cy="2142564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600638</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1120590</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE4C31C-F157-4ECA-B29F-173A7362ED83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600638" y="21380823"/>
+          <a:ext cx="3774140" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591674</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1111626</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3099B91F-5674-4BF6-98B0-47CC9095FAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591674" y="23344093"/>
+          <a:ext cx="3774140" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71722</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60E7C50-D660-4877-BB26-81DF4AE33BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550593" y="21426990"/>
+          <a:ext cx="3935501" cy="2517740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3768,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
-  <dimension ref="B2:O83"/>
+  <dimension ref="B2:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3785,74 +4602,89 @@
     <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="K7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>78</v>
+      <c r="K7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
@@ -3861,7 +4693,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -3869,7 +4701,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -3879,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
@@ -3925,33 +4757,33 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="36" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -3962,171 +4794,210 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D38" s="2"/>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="F42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
+      <c r="H42" t="s">
+        <v>213</v>
+      </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="H46" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I43" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" s="51"/>
+      <c r="N44" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="48"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>216</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H47" s="17"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E48" s="2" t="s">
-        <v>28</v>
+      <c r="J46" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="H47" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="H48" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="55" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="H49" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" s="48"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="H50" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="L50" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D51" s="2"/>
+      <c r="I51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="4:14" ht="36" x14ac:dyDescent="0.45">
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
@@ -4147,10 +5018,10 @@
     <row r="58" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.45">
@@ -4161,83 +5032,83 @@
     <row r="60" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="23" t="s">
-        <v>53</v>
+      <c r="M61" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E62" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L62" s="27"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="26"/>
       <c r="M62" s="8"/>
       <c r="N62" s="11"/>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E63" s="2"/>
       <c r="F63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="30"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="29"/>
       <c r="M63" s="8"/>
       <c r="N63" s="11"/>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E64" s="2"/>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L64" s="32"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L64" s="31"/>
       <c r="M64" s="8"/>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E65" s="2"/>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="8"/>
@@ -4247,51 +5118,51 @@
       <c r="M65" s="8"/>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E66" s="2"/>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H66" s="17"/>
-      <c r="I66" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="24" t="s">
-        <v>53</v>
+      <c r="I66" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E67" s="2"/>
       <c r="F67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="4:15" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="4:15" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="4:15" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -4301,31 +5172,31 @@
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D72" s="2"/>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D73" s="2"/>
       <c r="F73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -4333,51 +5204,51 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="8"/>
       <c r="J74" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O74" s="11"/>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
         <v>52</v>
-      </c>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="4:15" x14ac:dyDescent="0.45">
-      <c r="F75" t="s">
-        <v>54</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8"/>
       <c r="J75" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O75" s="11"/>
     </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="8"/>
@@ -4386,51 +5257,51 @@
       <c r="L76" s="15"/>
       <c r="M76" s="8"/>
       <c r="N76" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" s="11"/>
+    </row>
+    <row r="77" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="F77" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="4:15" x14ac:dyDescent="0.45">
-      <c r="F77" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="8"/>
       <c r="J77" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="8"/>
       <c r="J78" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="8"/>
@@ -4439,16 +5310,16 @@
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="4:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F80" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -4456,43 +5327,259 @@
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
-      <c r="O80" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="6:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P80" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O81" s="19"/>
     </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:15" x14ac:dyDescent="0.45">
       <c r="F82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.45">
       <c r="F83" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="4:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D88" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="F90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="E91" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="F92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="F93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="F94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="E95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="E98" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="8"/>
+      <c r="K98" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="11"/>
+    </row>
+    <row r="100" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H100" s="17"/>
+      <c r="I100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="19"/>
+    </row>
+    <row r="101" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J101" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="4:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="D111" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="F112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F115" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F116" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
+        <v>237</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F119" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4503,10 +5590,26 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
@@ -4526,10 +5629,10 @@
   <sheetData>
     <row r="3" spans="5:12" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="5:12" x14ac:dyDescent="0.45">
@@ -4544,25 +5647,25 @@
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="5:12" x14ac:dyDescent="0.45">
@@ -4573,20 +5676,20 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.45">
@@ -4594,7 +5697,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -4603,18 +5706,18 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4626,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.45">
@@ -4643,12 +5746,12 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4660,7 +5763,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.45">
@@ -4683,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -4692,18 +5795,18 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4747,7 +5850,7 @@
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4758,7 +5861,7 @@
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4769,7 +5872,7 @@
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4780,7 +5883,7 @@
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4791,7 +5894,7 @@
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -4802,7 +5905,7 @@
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4813,7 +5916,7 @@
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4824,7 +5927,7 @@
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4835,7 +5938,7 @@
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -4850,12 +5953,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4869,347 +5972,382 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>187</v>
+        <v>226</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="S6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="45" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="45" t="s">
+      <c r="J10" s="41"/>
+      <c r="K10" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="I11" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="45" t="s">
+      <c r="J11" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>172</v>
+      </c>
       <c r="S12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>182</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D13" s="40"/>
       <c r="S13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>183</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="S14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="S15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G17" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="G17" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="S17" t="s">
         <v>188</v>
       </c>
-      <c r="S17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G18" s="45" t="s">
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G19" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="G19" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G20" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="45" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="I21" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="45" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="45" t="s">
+      <c r="J22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
       <c r="S23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
       <c r="S24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
       <c r="S25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
       <c r="S26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G28" s="46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G29" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G28" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G30" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="45" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G30" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="G31" s="45" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="45" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="I32" s="45" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="I32" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="45" t="s">
+      <c r="J32" s="41"/>
+      <c r="K32" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="45" t="s">
+      <c r="J33" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5221,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
   <dimension ref="B3:F10"/>
   <sheetViews>
@@ -5240,72 +6378,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5318,7 +6456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
   <dimension ref="B3:G14"/>
   <sheetViews>
@@ -5337,97 +6475,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5439,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="B3:F23"/>
   <sheetViews>
@@ -5457,135 +6595,135 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A513994-EDCD-4CBE-A8F4-1DA4BAB0D410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F9147-21A0-4BA7-8D7F-09D521483BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="248">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2697,6 +2697,86 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がれき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出入口</t>
+    <rPh sb="0" eb="3">
+      <t>デイリグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深く掘らさっている</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がれきは掘らさっているところ・柵を埋めるように</t>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダストボックス・ブルシートに包まれた箱・死体を運ぶ道具</t>
+    <rPh sb="14" eb="15">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死体を運ぶ道具</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウグ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2705,7 +2785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2762,8 +2842,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2848,8 +2943,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3021,13 +3151,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3166,53 +3379,126 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="どちらでもない" xfId="1" builtinId="28"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3563,6 +3849,156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>421342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>63785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38178925-9EF1-49C8-A16D-DE06DA96AB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2142566" y="26741718"/>
+          <a:ext cx="2438400" cy="1498138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1102659</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1312911</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>184335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D7ED6A-DEB5-4470-92C1-C783CC99B76D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3119718" y="28238823"/>
+          <a:ext cx="1447381" cy="820830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>507998</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429A026B-70A7-430D-80A6-87FC53E69BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672352" y="27880234"/>
+          <a:ext cx="1852705" cy="1389529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4585,10 +5021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
-  <dimension ref="B2:P119"/>
+  <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4607,34 +5043,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -4693,7 +5129,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -4701,7 +5137,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="47"/>
+      <c r="B15" s="73"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -4857,21 +5293,21 @@
       <c r="F44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="50" t="s">
         <v>216</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="56" t="s">
+      <c r="J44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="56" t="s">
+      <c r="K44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="56" t="s">
+      <c r="L44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="M44" s="51"/>
-      <c r="N44" s="54" t="s">
+      <c r="M44" s="49"/>
+      <c r="N44" s="52" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4879,17 +5315,17 @@
       <c r="F45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49" t="s">
+      <c r="J45" s="46"/>
+      <c r="K45" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="46"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="55" t="s">
+      <c r="N45" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4897,7 +5333,7 @@
       <c r="F46" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I46" s="8"/>
@@ -4911,12 +5347,12 @@
         <v>214</v>
       </c>
       <c r="M46" s="8"/>
-      <c r="N46" s="55" t="s">
+      <c r="N46" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I47" s="8"/>
@@ -4924,12 +5360,12 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="55" t="s">
+      <c r="N47" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I48" s="8"/>
@@ -4943,43 +5379,43 @@
         <v>214</v>
       </c>
       <c r="M48" s="8"/>
-      <c r="N48" s="55" t="s">
+      <c r="N48" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49" t="s">
+      <c r="J49" s="46"/>
+      <c r="K49" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="L49" s="48"/>
+      <c r="L49" s="46"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="55" t="s">
+      <c r="N49" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
-      <c r="H50" s="57" t="s">
+      <c r="H50" s="55" t="s">
         <v>216</v>
       </c>
       <c r="I50" s="21"/>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="48" t="s">
         <v>214</v>
       </c>
       <c r="M50" s="21"/>
-      <c r="N50" s="58" t="s">
+      <c r="N50" s="56" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5395,7 +5831,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="59" t="s">
+      <c r="L90" s="57" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5417,11 +5853,11 @@
         <v>22</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="60" t="s">
+      <c r="I92" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J92" s="8"/>
-      <c r="K92" s="60" t="s">
+      <c r="K92" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L92" s="11"/>
@@ -5441,11 +5877,11 @@
         <v>25</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="60" t="s">
+      <c r="I94" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J94" s="8"/>
-      <c r="K94" s="60" t="s">
+      <c r="K94" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L94" s="11"/>
@@ -5468,16 +5904,16 @@
         <v>38</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="60" t="s">
+      <c r="I96" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J96" s="8"/>
-      <c r="K96" s="60" t="s">
+      <c r="K96" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
         <v>64</v>
       </c>
@@ -5487,7 +5923,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
         <v>219</v>
       </c>
@@ -5495,16 +5931,16 @@
         <v>220</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="60" t="s">
+      <c r="I98" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="8"/>
-      <c r="K98" s="60" t="s">
+      <c r="K98" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
         <v>221</v>
       </c>
@@ -5514,18 +5950,18 @@
       <c r="K99" s="8"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="4:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H100" s="17"/>
       <c r="I100" s="21"/>
       <c r="K100" s="21"/>
       <c r="L100" s="19"/>
     </row>
-    <row r="101" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="4:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J101" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="4:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="111" spans="4:13" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
         <v>236</v>
       </c>
@@ -5535,57 +5971,150 @@
       <c r="F111" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="H111" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="81"/>
+      <c r="L111" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="M111" s="75"/>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H112" s="82"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="83"/>
+      <c r="K112" s="83"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="77"/>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H113" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="I113" s="79"/>
+      <c r="J113" s="79"/>
+      <c r="K113" s="79"/>
+      <c r="L113" s="76"/>
+      <c r="M113" s="77"/>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H114" s="59"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="60"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="G115" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="H115" s="59"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="60"/>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H116" s="59"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="60"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F117" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H117" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="60"/>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>237</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H118" s="66"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
+      <c r="K118" s="67"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="60"/>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="H119" s="69"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="61"/>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="F120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M120" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="F121" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D122" t="s">
+        <v>244</v>
+      </c>
+      <c r="H122" s="84"/>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D123" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="H117:L119"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L111:M113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="H111:K112"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6378,11 +6907,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6475,11 +7004,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6595,11 +7124,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F9147-21A0-4BA7-8D7F-09D521483BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8ABD9-6FA3-4AD2-9261-2CC18C828A41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="250">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2777,6 +2777,23 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掘ってある穴</t>
+    <rPh sb="0" eb="1">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3430,6 +3447,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3492,9 +3512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5021,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
-  <dimension ref="B2:P123"/>
+  <dimension ref="B2:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5043,34 +5060,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5129,7 +5146,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5137,7 +5154,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="73"/>
+      <c r="B15" s="74"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -5971,40 +5988,40 @@
       <c r="F111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="80" t="s">
+      <c r="H111" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="I111" s="81"/>
-      <c r="J111" s="81"/>
-      <c r="K111" s="81"/>
-      <c r="L111" s="74" t="s">
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="82"/>
+      <c r="L111" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="M111" s="75"/>
+      <c r="M111" s="76"/>
     </row>
     <row r="112" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="82"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="83"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="77"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="84"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="78"/>
     </row>
     <row r="113" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="78" t="s">
+      <c r="H113" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="77"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="78"/>
     </row>
     <row r="114" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -6049,13 +6066,13 @@
       <c r="F117" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H117" s="63" t="s">
+      <c r="H117" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="64"/>
-      <c r="L117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="66"/>
       <c r="M117" s="60"/>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.45">
@@ -6065,22 +6082,22 @@
       <c r="F118" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H118" s="66"/>
-      <c r="I118" s="67"/>
-      <c r="J118" s="67"/>
-      <c r="K118" s="67"/>
-      <c r="L118" s="68"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
+      <c r="K118" s="68"/>
+      <c r="L118" s="69"/>
       <c r="M118" s="60"/>
     </row>
     <row r="119" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H119" s="69"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="70"/>
-      <c r="K119" s="70"/>
-      <c r="L119" s="71"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="72"/>
       <c r="M119" s="61"/>
     </row>
     <row r="120" spans="4:13" x14ac:dyDescent="0.45">
@@ -6097,13 +6114,23 @@
       </c>
     </row>
     <row r="122" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D122" t="s">
+      <c r="F122" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H122" s="63"/>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="F123" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
         <v>244</v>
       </c>
-      <c r="H122" s="84"/>
-    </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D123" t="s">
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D125" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6907,11 +6934,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -7004,11 +7031,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -7124,11 +7151,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A513994-EDCD-4CBE-A8F4-1DA4BAB0D410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFE566-7D0D-4117-BD27-9CB6D6374B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="244">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2698,6 +2698,22 @@
     <rPh sb="11" eb="12">
       <t>ハコ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3166,12 +3182,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3210,6 +3220,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4587,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
@@ -4607,34 +4623,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -4693,7 +4709,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -4701,7 +4717,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="47"/>
+      <c r="B15" s="60"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -4857,21 +4873,21 @@
       <c r="F44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="50" t="s">
         <v>216</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="56" t="s">
+      <c r="J44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="56" t="s">
+      <c r="K44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="56" t="s">
+      <c r="L44" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="M44" s="51"/>
-      <c r="N44" s="54" t="s">
+      <c r="M44" s="49"/>
+      <c r="N44" s="52" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4879,17 +4895,17 @@
       <c r="F45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49" t="s">
+      <c r="J45" s="46"/>
+      <c r="K45" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="46"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="55" t="s">
+      <c r="N45" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4897,7 +4913,7 @@
       <c r="F46" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I46" s="8"/>
@@ -4911,12 +4927,12 @@
         <v>214</v>
       </c>
       <c r="M46" s="8"/>
-      <c r="N46" s="55" t="s">
+      <c r="N46" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I47" s="8"/>
@@ -4924,12 +4940,12 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="55" t="s">
+      <c r="N47" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I48" s="8"/>
@@ -4943,43 +4959,43 @@
         <v>214</v>
       </c>
       <c r="M48" s="8"/>
-      <c r="N48" s="55" t="s">
+      <c r="N48" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="51" t="s">
         <v>216</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49" t="s">
+      <c r="J49" s="46"/>
+      <c r="K49" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="L49" s="48"/>
+      <c r="L49" s="46"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="55" t="s">
+      <c r="N49" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
-      <c r="H50" s="57" t="s">
+      <c r="H50" s="55" t="s">
         <v>216</v>
       </c>
       <c r="I50" s="21"/>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="48" t="s">
         <v>214</v>
       </c>
       <c r="M50" s="21"/>
-      <c r="N50" s="58" t="s">
+      <c r="N50" s="56" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5395,7 +5411,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="59" t="s">
+      <c r="L90" s="57" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5417,11 +5433,11 @@
         <v>22</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="60" t="s">
+      <c r="I92" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J92" s="8"/>
-      <c r="K92" s="60" t="s">
+      <c r="K92" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L92" s="11"/>
@@ -5441,11 +5457,11 @@
         <v>25</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="60" t="s">
+      <c r="I94" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J94" s="8"/>
-      <c r="K94" s="60" t="s">
+      <c r="K94" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L94" s="11"/>
@@ -5468,11 +5484,11 @@
         <v>38</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="60" t="s">
+      <c r="I96" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J96" s="8"/>
-      <c r="K96" s="60" t="s">
+      <c r="K96" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L96" s="11"/>
@@ -5495,11 +5511,11 @@
         <v>220</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="60" t="s">
+      <c r="I98" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="8"/>
-      <c r="K98" s="60" t="s">
+      <c r="K98" s="58" t="s">
         <v>26</v>
       </c>
       <c r="L98" s="11"/>
@@ -5596,16 +5612,1622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:AS40"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:45" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="11"/>
+    </row>
+    <row r="6" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="11"/>
+    </row>
+    <row r="7" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="11"/>
+    </row>
+    <row r="8" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="11"/>
+    </row>
+    <row r="9" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="11"/>
+    </row>
+    <row r="10" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="11"/>
+    </row>
+    <row r="11" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="11"/>
+    </row>
+    <row r="12" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="11"/>
+    </row>
+    <row r="13" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="11"/>
+    </row>
+    <row r="14" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="11"/>
+    </row>
+    <row r="15" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="11"/>
+    </row>
+    <row r="16" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="11"/>
+    </row>
+    <row r="17" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="11"/>
+    </row>
+    <row r="18" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="11"/>
+    </row>
+    <row r="19" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="11"/>
+    </row>
+    <row r="20" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="11"/>
+    </row>
+    <row r="21" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="11"/>
+    </row>
+    <row r="22" spans="3:45" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D22" s="17"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="19"/>
+    </row>
+    <row r="23" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="11"/>
+    </row>
+    <row r="25" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="11"/>
+    </row>
+    <row r="26" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="11"/>
+    </row>
+    <row r="27" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="11"/>
+    </row>
+    <row r="28" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="11"/>
+    </row>
+    <row r="29" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="11"/>
+    </row>
+    <row r="30" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="11"/>
+    </row>
+    <row r="31" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="11"/>
+    </row>
+    <row r="32" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="11"/>
+    </row>
+    <row r="33" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="11"/>
+    </row>
+    <row r="34" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="11"/>
+    </row>
+    <row r="35" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="11"/>
+    </row>
+    <row r="36" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="11"/>
+    </row>
+    <row r="37" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="11"/>
+    </row>
+    <row r="38" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="11"/>
+    </row>
+    <row r="39" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="11"/>
+    </row>
+    <row r="40" spans="4:44" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D40" s="17"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="19"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5957,8 +7579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6378,11 +8000,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6475,11 +8097,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6595,11 +8217,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\グループ制作1\github3\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFE566-7D0D-4117-BD27-9CB6D6374B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14638E-10F8-4131-BFC8-40FD9DC263C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="250">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2714,6 +2714,63 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い穴</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死体を運ぶ道具</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がれき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出口</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダストボックス・・死体を運ぶ道具が置かれている</t>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウグ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2779,7 +2836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2864,8 +2921,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3037,13 +3118,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3225,6 +3386,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3579,6 +3797,156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726142</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56780</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCB8CD3-355A-4276-87FC-6162A380A5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743201" y="26786541"/>
+          <a:ext cx="1894544" cy="1093694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>188260</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749358</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84605E9F-D46B-4494-82A2-D6DA8E698737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="860613" y="27808517"/>
+          <a:ext cx="1905804" cy="1080808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>770966</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1290919</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E38021C-2260-4A6D-A10F-3367A5F1CD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2788025" y="27817483"/>
+          <a:ext cx="1757082" cy="1317812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4601,10 +4969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
-  <dimension ref="B2:P119"/>
+  <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120:L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5493,7 +5861,7 @@
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
         <v>64</v>
       </c>
@@ -5503,7 +5871,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
         <v>219</v>
       </c>
@@ -5520,7 +5888,7 @@
       </c>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
         <v>221</v>
       </c>
@@ -5530,18 +5898,18 @@
       <c r="K99" s="8"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H100" s="17"/>
       <c r="I100" s="21"/>
       <c r="K100" s="21"/>
       <c r="L100" s="19"/>
     </row>
-    <row r="101" spans="4:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J101" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="4:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="111" spans="4:14" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
         <v>236</v>
       </c>
@@ -5552,56 +5920,171 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H112" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
+      <c r="L112" s="67"/>
+      <c r="M112" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="N112" s="71"/>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H113" s="68"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="73"/>
+    </row>
+    <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
         <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H114" s="68"/>
+      <c r="I114" s="69"/>
+      <c r="J114" s="69"/>
+      <c r="K114" s="69"/>
+      <c r="L114" s="69"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="73"/>
+    </row>
+    <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H115" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="75"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="73"/>
+    </row>
+    <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H116" s="61"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="62"/>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F117" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="G117" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="H117" s="61"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="62"/>
+    </row>
+    <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>237</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="H118" s="61"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="62"/>
+    </row>
+    <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="H119" s="61"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="62"/>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="F120" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H120" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="62"/>
+    </row>
+    <row r="121" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="F121" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H121" s="76"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="62"/>
+    </row>
+    <row r="122" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="F122" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H122" s="78"/>
+      <c r="I122" s="79"/>
+      <c r="J122" s="79"/>
+      <c r="K122" s="79"/>
+      <c r="L122" s="79"/>
+      <c r="M122" s="63"/>
+      <c r="N122" s="64"/>
+    </row>
+    <row r="123" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="F123" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N123" s="65" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H112:L114"/>
+    <mergeCell ref="M112:N115"/>
+    <mergeCell ref="H115:L115"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7579,7 +8062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\グループ制作1\github3\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14638E-10F8-4131-BFC8-40FD9DC263C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F7842-FF99-402D-B498-55E856A7E862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="3" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -3382,12 +3382,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3402,6 +3396,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3431,18 +3443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4971,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120:L122"/>
+    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4991,34 +4991,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5077,7 +5077,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="69" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5085,7 +5085,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="60"/>
+      <c r="B15" s="69"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -5924,29 +5924,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="66" t="s">
+      <c r="H112" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="67"/>
-      <c r="L112" s="67"/>
-      <c r="M112" s="70" t="s">
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="N112" s="71"/>
+      <c r="N112" s="75"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="68"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="72"/>
-      <c r="N113" s="73"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
+      <c r="K113" s="73"/>
+      <c r="L113" s="73"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="77"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -5955,54 +5955,54 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="68"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="69"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="72"/>
-      <c r="N114" s="73"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="77"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="74" t="s">
+      <c r="H115" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="I115" s="75"/>
-      <c r="J115" s="75"/>
-      <c r="K115" s="75"/>
-      <c r="L115" s="75"/>
-      <c r="M115" s="72"/>
-      <c r="N115" s="73"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="77"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H116" s="61"/>
+      <c r="H116" s="59"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
-      <c r="N116" s="62"/>
+      <c r="N116" s="60"/>
     </row>
     <row r="117" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F117" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="65" t="s">
+      <c r="G117" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="H117" s="61"/>
+      <c r="H117" s="59"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
-      <c r="N117" s="62"/>
+      <c r="N117" s="60"/>
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
@@ -6011,69 +6011,69 @@
       <c r="F118" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H118" s="61"/>
+      <c r="H118" s="59"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="62"/>
+      <c r="N118" s="60"/>
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H119" s="61"/>
+      <c r="H119" s="59"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
-      <c r="N119" s="62"/>
+      <c r="N119" s="60"/>
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F120" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H120" s="76" t="s">
+      <c r="H120" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="65"/>
       <c r="M120" s="8"/>
-      <c r="N120" s="62"/>
+      <c r="N120" s="60"/>
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F121" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H121" s="76"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
+      <c r="L121" s="65"/>
       <c r="M121" s="8"/>
-      <c r="N121" s="62"/>
+      <c r="N121" s="60"/>
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H122" s="78"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="63"/>
-      <c r="N122" s="64"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="61"/>
+      <c r="N122" s="62"/>
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F123" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N123" s="65" t="s">
+      <c r="N123" s="63" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -8483,11 +8483,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8580,11 +8580,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8686,7 +8686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8700,11 +8700,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F7842-FF99-402D-B498-55E856A7E862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFECFD7-91A1-4ADE-BE7A-C70C63B588DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="3" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="5" activeTab="7" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId5"/>
     <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId6"/>
     <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId7"/>
+    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="269">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2172,39 +2173,6 @@
   </si>
   <si>
     <t>生物収容所</t>
-    <rPh sb="0" eb="2">
-      <t>セイブツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>死体を処置する場所</t>
-    <rPh sb="0" eb="2">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>崩壊エリア</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生物収容所</t>
     <rPh sb="0" eb="5">
       <t>セイブツシュウヨウジョ</t>
     </rPh>
@@ -2701,22 +2669,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>深い穴</t>
     <rPh sb="0" eb="1">
       <t>フカ</t>
@@ -2770,6 +2722,239 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A研究エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bオフィスエリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C生物研究所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D崩壊エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームの大枠となる処理を参照してください</t>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>time.cpp・タイム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3分程の予定でいる</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一秒ごとにカウントを減らす</t>
+    <rPh sb="0" eb="2">
+      <t>イチビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームが終了状態になったときカウントをとめる</t>
+    <rPh sb="4" eb="8">
+      <t>シュウリョウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウントが０になった時ゲームを終了状態にする</t>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シュウリョウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウントが０になった時ゲームオーバーのリザルトにする</t>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4人ぶんのゲージを準備する</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタミナが最大状態で一定時間経過するとα値を下げる</t>
+    <rPh sb="5" eb="9">
+      <t>サイダイジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アルファアタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Life.cpp・ライフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4人ぶんのライフを準備する</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一人当たりのライフは３つ</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトリア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵に触れるとライフが一つ減る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフが０になったときプレイヤーを死亡状態にする</t>
+    <rPh sb="17" eb="19">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itme.cpp・アイテム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大数1024でステージの道の真ん中に配置する</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに触れたときアイテムのbUseをfalseにする</t>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに触れたときスコアを１増加させる</t>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>score.cpp・スコア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透モードのリザルト画面でのみ表示</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグモードのときはゲーム画面でも表示しておきたい</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桁数の最大は三桁</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミケタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2778,7 +2963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2832,6 +3017,22 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3204,7 +3405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3444,6 +3645,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3953,6 +4160,143 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>69271</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C1F5FD-A46A-45C9-B7D4-8043CB65E7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13369635" y="207818"/>
+          <a:ext cx="5999019" cy="4641274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>249383</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AEE6AC-E86A-42CA-9416-25B6C2F345B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13369637" y="5361709"/>
+          <a:ext cx="5999019" cy="4516582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4971,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5050,25 +5394,10 @@
         <v>74</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
@@ -5220,7 +5549,7 @@
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -5236,72 +5565,72 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L44" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="52" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F45" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L45" s="46"/>
       <c r="M45" s="8"/>
       <c r="N45" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F46" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H47" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -5309,62 +5638,62 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H48" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
       <c r="H49" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="46"/>
       <c r="K49" s="47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L49" s="46"/>
       <c r="M49" s="8"/>
       <c r="N49" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
       <c r="H50" s="55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5752,7 +6081,7 @@
     </row>
     <row r="88" spans="4:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D88" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
         <v>62</v>
@@ -5761,7 +6090,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5780,7 +6109,7 @@
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.45">
@@ -5873,10 +6202,10 @@
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="58" t="s">
@@ -5890,7 +6219,7 @@
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8"/>
@@ -5911,7 +6240,7 @@
     </row>
     <row r="111" spans="4:14" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
@@ -5925,14 +6254,14 @@
         <v>16</v>
       </c>
       <c r="H112" s="70" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I112" s="71"/>
       <c r="J112" s="71"/>
       <c r="K112" s="71"/>
       <c r="L112" s="71"/>
       <c r="M112" s="74" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N112" s="75"/>
     </row>
@@ -5968,7 +6297,7 @@
         <v>22</v>
       </c>
       <c r="H115" s="78" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I115" s="79"/>
       <c r="J115" s="79"/>
@@ -5994,7 +6323,7 @@
         <v>25</v>
       </c>
       <c r="G117" s="63" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="8"/>
@@ -6006,10 +6335,10 @@
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H118" s="59"/>
       <c r="I118" s="8"/>
@@ -6021,7 +6350,7 @@
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H119" s="59"/>
       <c r="I119" s="8"/>
@@ -6033,10 +6362,10 @@
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F120" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H120" s="64" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I120" s="65"/>
       <c r="J120" s="65"/>
@@ -6047,7 +6376,7 @@
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F121" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H121" s="64"/>
       <c r="I121" s="65"/>
@@ -6059,7 +6388,7 @@
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F122" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H122" s="66"/>
       <c r="I122" s="67"/>
@@ -6071,10 +6400,10 @@
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F123" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N123" s="63" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6095,19 +6424,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
-  <dimension ref="C3:AS40"/>
+  <dimension ref="D3:AT41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX12" sqref="AX12"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="3:45" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
+    <row r="3" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z3" s="81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6127,10 +6460,8 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="W4" s="6"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -6148,12 +6479,11 @@
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="6"/>
+    </row>
+    <row r="5" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -6173,10 +6503,8 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="W5" s="11"/>
+      <c r="Z5" s="7"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
@@ -6194,9 +6522,11 @@
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
-      <c r="AR5" s="11"/>
-    </row>
-    <row r="6" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="11"/>
+    </row>
+    <row r="6" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -6216,10 +6546,8 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="W6" s="11"/>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
@@ -6237,9 +6565,11 @@
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
-      <c r="AR6" s="11"/>
-    </row>
-    <row r="7" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="11"/>
+    </row>
+    <row r="7" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -6259,10 +6589,8 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="W7" s="11"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
@@ -6280,9 +6608,11 @@
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
-      <c r="AR7" s="11"/>
-    </row>
-    <row r="8" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="11"/>
+    </row>
+    <row r="8" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -6302,10 +6632,8 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="W8" s="11"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -6323,9 +6651,11 @@
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
-      <c r="AR8" s="11"/>
-    </row>
-    <row r="9" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="11"/>
+    </row>
+    <row r="9" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -6345,10 +6675,8 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="W9" s="11"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -6366,9 +6694,11 @@
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
-      <c r="AR9" s="11"/>
-    </row>
-    <row r="10" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -6388,10 +6718,8 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="W10" s="11"/>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -6409,9 +6737,11 @@
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
-      <c r="AR10" s="11"/>
-    </row>
-    <row r="11" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="11"/>
+    </row>
+    <row r="11" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -6431,10 +6761,8 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="W11" s="11"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -6452,9 +6780,11 @@
       <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
-      <c r="AR11" s="11"/>
-    </row>
-    <row r="12" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="11"/>
+    </row>
+    <row r="12" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -6474,10 +6804,8 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="W12" s="11"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -6495,9 +6823,11 @@
       <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
-      <c r="AR12" s="11"/>
-    </row>
-    <row r="13" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="11"/>
+    </row>
+    <row r="13" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -6517,10 +6847,8 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="W13" s="11"/>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -6538,9 +6866,11 @@
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
-      <c r="AR13" s="11"/>
-    </row>
-    <row r="14" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="11"/>
+    </row>
+    <row r="14" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -6560,10 +6890,8 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="W14" s="11"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -6581,9 +6909,11 @@
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
-      <c r="AR14" s="11"/>
-    </row>
-    <row r="15" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="11"/>
+    </row>
+    <row r="15" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -6603,10 +6933,8 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="W15" s="11"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -6624,9 +6952,11 @@
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
-      <c r="AR15" s="11"/>
-    </row>
-    <row r="16" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="11"/>
+    </row>
+    <row r="16" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -6646,10 +6976,8 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="W16" s="11"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -6667,9 +6995,11 @@
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
-      <c r="AR16" s="11"/>
-    </row>
-    <row r="17" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="11"/>
+    </row>
+    <row r="17" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -6689,10 +7019,8 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
+      <c r="W17" s="11"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -6710,9 +7038,11 @@
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
-      <c r="AR17" s="11"/>
-    </row>
-    <row r="18" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="11"/>
+    </row>
+    <row r="18" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -6732,10 +7062,8 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="W18" s="11"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -6753,9 +7081,11 @@
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
-      <c r="AR18" s="11"/>
-    </row>
-    <row r="19" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="11"/>
+    </row>
+    <row r="19" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -6775,10 +7105,8 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="W19" s="11"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -6796,9 +7124,11 @@
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="8"/>
-      <c r="AR19" s="11"/>
-    </row>
-    <row r="20" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="11"/>
+    </row>
+    <row r="20" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -6818,10 +7148,8 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="W20" s="11"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -6839,9 +7167,11 @@
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
-      <c r="AR20" s="11"/>
-    </row>
-    <row r="21" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -6861,10 +7191,8 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="W21" s="11"/>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -6882,9 +7210,11 @@
       <c r="AO21" s="8"/>
       <c r="AP21" s="8"/>
       <c r="AQ21" s="8"/>
-      <c r="AR21" s="11"/>
-    </row>
-    <row r="22" spans="3:45" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="11"/>
+    </row>
+    <row r="22" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D22" s="17"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -6904,10 +7234,8 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
+      <c r="W22" s="19"/>
+      <c r="Z22" s="17"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
@@ -6925,101 +7253,63 @@
       <c r="AO22" s="21"/>
       <c r="AP22" s="21"/>
       <c r="AQ22" s="21"/>
-      <c r="AR22" s="19"/>
-    </row>
-    <row r="23" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" t="s">
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="19"/>
+    </row>
+    <row r="23" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D23" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z23" s="80" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="24" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="11"/>
-    </row>
-    <row r="25" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA23" s="80"/>
+    </row>
+    <row r="24" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="6"/>
+    </row>
+    <row r="25" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -7039,10 +7329,8 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="W25" s="11"/>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -7060,9 +7348,11 @@
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="8"/>
-      <c r="AR25" s="11"/>
-    </row>
-    <row r="26" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="11"/>
+    </row>
+    <row r="26" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -7082,10 +7372,8 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="W26" s="11"/>
+      <c r="Z26" s="7"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -7103,9 +7391,11 @@
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
       <c r="AQ26" s="8"/>
-      <c r="AR26" s="11"/>
-    </row>
-    <row r="27" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="11"/>
+    </row>
+    <row r="27" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -7125,10 +7415,8 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="W27" s="11"/>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -7146,9 +7434,11 @@
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="8"/>
-      <c r="AR27" s="11"/>
-    </row>
-    <row r="28" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="11"/>
+    </row>
+    <row r="28" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -7168,10 +7458,8 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
+      <c r="W28" s="11"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -7189,9 +7477,11 @@
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
       <c r="AQ28" s="8"/>
-      <c r="AR28" s="11"/>
-    </row>
-    <row r="29" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="11"/>
+    </row>
+    <row r="29" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -7211,10 +7501,8 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
+      <c r="W29" s="11"/>
+      <c r="Z29" s="7"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -7232,9 +7520,11 @@
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
       <c r="AQ29" s="8"/>
-      <c r="AR29" s="11"/>
-    </row>
-    <row r="30" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="11"/>
+    </row>
+    <row r="30" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -7254,10 +7544,8 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="W30" s="11"/>
+      <c r="Z30" s="7"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -7275,9 +7563,11 @@
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
       <c r="AQ30" s="8"/>
-      <c r="AR30" s="11"/>
-    </row>
-    <row r="31" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="11"/>
+    </row>
+    <row r="31" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -7297,10 +7587,8 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
+      <c r="W31" s="11"/>
+      <c r="Z31" s="7"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -7318,9 +7606,11 @@
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
       <c r="AQ31" s="8"/>
-      <c r="AR31" s="11"/>
-    </row>
-    <row r="32" spans="3:45" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="11"/>
+    </row>
+    <row r="32" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -7340,10 +7630,8 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="W32" s="11"/>
+      <c r="Z32" s="7"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
@@ -7361,9 +7649,11 @@
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
       <c r="AQ32" s="8"/>
-      <c r="AR32" s="11"/>
-    </row>
-    <row r="33" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="11"/>
+    </row>
+    <row r="33" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -7383,10 +7673,8 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
+      <c r="W33" s="11"/>
+      <c r="Z33" s="7"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
@@ -7404,9 +7692,11 @@
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="8"/>
-      <c r="AR33" s="11"/>
-    </row>
-    <row r="34" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="11"/>
+    </row>
+    <row r="34" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -7426,10 +7716,8 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
+      <c r="W34" s="11"/>
+      <c r="Z34" s="7"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
@@ -7447,9 +7735,11 @@
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
       <c r="AQ34" s="8"/>
-      <c r="AR34" s="11"/>
-    </row>
-    <row r="35" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="11"/>
+    </row>
+    <row r="35" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -7469,10 +7759,8 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
+      <c r="W35" s="11"/>
+      <c r="Z35" s="7"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
@@ -7490,9 +7778,11 @@
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
       <c r="AQ35" s="8"/>
-      <c r="AR35" s="11"/>
-    </row>
-    <row r="36" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="11"/>
+    </row>
+    <row r="36" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -7512,10 +7802,8 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
+      <c r="W36" s="11"/>
+      <c r="Z36" s="7"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
@@ -7533,9 +7821,11 @@
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
       <c r="AQ36" s="8"/>
-      <c r="AR36" s="11"/>
-    </row>
-    <row r="37" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="11"/>
+    </row>
+    <row r="37" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -7555,10 +7845,8 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="W37" s="11"/>
+      <c r="Z37" s="7"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
@@ -7576,9 +7864,11 @@
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
       <c r="AQ37" s="8"/>
-      <c r="AR37" s="11"/>
-    </row>
-    <row r="38" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="11"/>
+    </row>
+    <row r="38" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -7598,10 +7888,8 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="W38" s="11"/>
+      <c r="Z38" s="7"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
@@ -7619,9 +7907,11 @@
       <c r="AO38" s="8"/>
       <c r="AP38" s="8"/>
       <c r="AQ38" s="8"/>
-      <c r="AR38" s="11"/>
-    </row>
-    <row r="39" spans="4:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="11"/>
+    </row>
+    <row r="39" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -7641,10 +7931,8 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
+      <c r="W39" s="11"/>
+      <c r="Z39" s="7"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
@@ -7662,55 +7950,101 @@
       <c r="AO39" s="8"/>
       <c r="AP39" s="8"/>
       <c r="AQ39" s="8"/>
-      <c r="AR39" s="11"/>
-    </row>
-    <row r="40" spans="4:44" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D40" s="17"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="19"/>
+      <c r="AR39" s="8"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="11"/>
+    </row>
+    <row r="40" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="11"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="11"/>
+    </row>
+    <row r="41" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D41" s="17"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="19"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7718,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8063,7 +8397,7 @@
   <dimension ref="B4:S33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8090,7 +8424,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>180</v>
@@ -8101,7 +8435,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>15</v>
@@ -8162,7 +8496,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -8245,7 +8579,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="8"/>
       <c r="G17" s="45" t="s">
@@ -8257,7 +8591,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>15</v>
@@ -8280,7 +8614,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D19" s="8"/>
       <c r="G19" s="43" t="s">
@@ -8298,7 +8632,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>15</v>
@@ -8319,7 +8653,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I21" s="44" t="s">
         <v>15</v>
@@ -8334,7 +8668,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -8353,7 +8687,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S23" t="s">
         <v>201</v>
@@ -8361,7 +8695,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S24" t="s">
         <v>195</v>
@@ -8369,7 +8703,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S25" t="s">
         <v>184</v>
@@ -8377,7 +8711,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S26" t="s">
         <v>203</v>
@@ -8385,7 +8719,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
@@ -8686,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8839,4 +9173,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
+  <dimension ref="B3:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFECFD7-91A1-4ADE-BE7A-C70C63B588DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB805905-C7EC-4FCE-A181-EAFE593472A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="5" activeTab="7" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="4" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
-    <sheet name="マップ制作案" sheetId="7" r:id="rId2"/>
-    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId3"/>
-    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId4"/>
-    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId5"/>
-    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId6"/>
-    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId7"/>
-    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId8"/>
+    <sheet name="やることリスト" sheetId="10" r:id="rId2"/>
+    <sheet name="マップ制作案" sheetId="7" r:id="rId3"/>
+    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId4"/>
+    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId5"/>
+    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId6"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId7"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId8"/>
+    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="273">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2955,6 +2956,31 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ミケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どこの処理か</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="4">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たんとう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終わったかどうか</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3598,6 +3624,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3645,12 +3677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5315,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -5335,34 +5361,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5406,7 +5432,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5414,7 +5440,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="69"/>
+      <c r="B15" s="71"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -6253,29 +6279,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="70" t="s">
+      <c r="H112" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="74" t="s">
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="73"/>
+      <c r="L112" s="73"/>
+      <c r="M112" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="75"/>
+      <c r="N112" s="77"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="72"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
-      <c r="K113" s="73"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="77"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="78"/>
+      <c r="N113" s="79"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -6284,27 +6310,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="72"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="76"/>
-      <c r="N114" s="77"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="78"/>
+      <c r="N114" s="79"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="78" t="s">
+      <c r="H115" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="76"/>
-      <c r="N115" s="77"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="81"/>
+      <c r="M115" s="78"/>
+      <c r="N115" s="79"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -6364,13 +6390,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="64" t="s">
+      <c r="H120" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="65"/>
-      <c r="J120" s="65"/>
-      <c r="K120" s="65"/>
-      <c r="L120" s="65"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="67"/>
+      <c r="L120" s="67"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -6378,11 +6404,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="64"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
-      <c r="L121" s="65"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
+      <c r="L121" s="67"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -6390,11 +6416,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="66"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
-      <c r="L122" s="67"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="69"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -6423,20 +6449,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
+  <dimension ref="D3:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="Z3" s="81" t="s">
+      <c r="Z3" s="65" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7258,13 +7319,13 @@
       <c r="AT22" s="19"/>
     </row>
     <row r="23" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="Z23" s="80" t="s">
+      <c r="Z23" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="AA23" s="80"/>
+      <c r="AA23" s="64"/>
     </row>
     <row r="24" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
@@ -8048,7 +8109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
@@ -8392,11 +8453,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -8798,7 +8859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
   <dimension ref="B3:F10"/>
   <sheetViews>
@@ -8817,11 +8878,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8895,7 +8956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
   <dimension ref="B3:G14"/>
   <sheetViews>
@@ -8914,11 +8975,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9016,7 +9077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="B3:F23"/>
   <sheetViews>
@@ -9034,11 +9095,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9175,12 +9236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
   <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9193,11 +9254,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9358,5 +9419,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB805905-C7EC-4FCE-A181-EAFE593472A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C068A-7E56-479D-A551-6DC0DEBC88CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="4" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -5341,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6487,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AT10:AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8113,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8457,7 +8457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -8864,7 +8864,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C068A-7E56-479D-A551-6DC0DEBC88CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C17A13-A755-4314-9079-C3DC4A7130D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -2735,10 +2735,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C生物研究所</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>D崩壊エリア</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2981,6 +2977,16 @@
     <t>終わったかどうか</t>
     <rPh sb="0" eb="1">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C生物収容所</t>
+    <rPh sb="3" eb="5">
+      <t>シュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6465,16 +6471,16 @@
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
         <v>270</v>
       </c>
-      <c r="E3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>271</v>
-      </c>
-      <c r="G3" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6488,17 +6494,17 @@
   <dimension ref="D3:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AT10:AU11"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z3" s="65" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -9290,7 +9296,7 @@
         <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
@@ -9323,21 +9329,21 @@
         <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
@@ -9345,10 +9351,10 @@
         <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
@@ -9356,10 +9362,10 @@
         <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
@@ -9367,50 +9373,50 @@
         <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C17A13-A755-4314-9079-C3DC4A7130D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFDFD9-AE6B-4ABE-B359-32EF3EC57277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -2995,7 +2995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3068,8 +3068,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3178,8 +3186,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3431,13 +3445,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3683,6 +3710,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6493,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6744,19 +6816,19 @@
       <c r="V9" s="8"/>
       <c r="W9" s="11"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="89"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
@@ -6787,19 +6859,19 @@
       <c r="V10" s="8"/>
       <c r="W10" s="11"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
+      <c r="AM10" s="60"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
@@ -6830,19 +6902,19 @@
       <c r="V11" s="8"/>
       <c r="W11" s="11"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="96"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
+      <c r="AM11" s="60"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
@@ -6873,19 +6945,19 @@
       <c r="V12" s="8"/>
       <c r="W12" s="11"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="95"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="90"/>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
@@ -6916,19 +6988,19 @@
       <c r="V13" s="8"/>
       <c r="W13" s="11"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="90"/>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
@@ -6959,19 +7031,19 @@
       <c r="V14" s="8"/>
       <c r="W14" s="11"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="90"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
@@ -7002,19 +7074,19 @@
       <c r="V15" s="8"/>
       <c r="W15" s="11"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="59"/>
       <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="90"/>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
@@ -7045,19 +7117,19 @@
       <c r="V16" s="8"/>
       <c r="W16" s="11"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="8"/>
+      <c r="AA16" s="59"/>
       <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="90"/>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
@@ -7087,20 +7159,20 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="11"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="90"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
@@ -7130,20 +7202,20 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="11"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="90"/>
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
@@ -7174,19 +7246,19 @@
       <c r="V19" s="8"/>
       <c r="W19" s="11"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="8"/>
+      <c r="AA19" s="59"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="90"/>
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
@@ -7217,19 +7289,19 @@
       <c r="V20" s="8"/>
       <c r="W20" s="11"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="8"/>
+      <c r="AA20" s="59"/>
       <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="90"/>
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
@@ -7260,19 +7332,19 @@
       <c r="V21" s="8"/>
       <c r="W21" s="11"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="95"/>
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="8"/>
@@ -7305,8 +7377,8 @@
       <c r="Z22" s="17"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFDFD9-AE6B-4ABE-B359-32EF3EC57277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B582112-FEE0-427F-9DFD-CC12E3624973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -3464,7 +3464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3663,6 +3663,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3711,49 +3732,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5439,34 +5418,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5510,7 +5489,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5518,7 +5497,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="71"/>
+      <c r="B15" s="78"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -6357,29 +6336,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="72" t="s">
+      <c r="H112" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="73"/>
-      <c r="J112" s="73"/>
-      <c r="K112" s="73"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="76" t="s">
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="77"/>
+      <c r="N112" s="84"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="74"/>
-      <c r="I113" s="75"/>
-      <c r="J113" s="75"/>
-      <c r="K113" s="75"/>
-      <c r="L113" s="75"/>
-      <c r="M113" s="78"/>
-      <c r="N113" s="79"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="82"/>
+      <c r="K113" s="82"/>
+      <c r="L113" s="82"/>
+      <c r="M113" s="85"/>
+      <c r="N113" s="86"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -6388,27 +6367,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="74"/>
-      <c r="I114" s="75"/>
-      <c r="J114" s="75"/>
-      <c r="K114" s="75"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="78"/>
-      <c r="N114" s="79"/>
+      <c r="H114" s="81"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="85"/>
+      <c r="N114" s="86"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="80" t="s">
+      <c r="H115" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="81"/>
-      <c r="J115" s="81"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="81"/>
-      <c r="M115" s="78"/>
-      <c r="N115" s="79"/>
+      <c r="I115" s="88"/>
+      <c r="J115" s="88"/>
+      <c r="K115" s="88"/>
+      <c r="L115" s="88"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -6468,13 +6447,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="66" t="s">
+      <c r="H120" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="67"/>
-      <c r="L120" s="67"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -6482,11 +6461,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="66"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
-      <c r="L121" s="67"/>
+      <c r="H121" s="73"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="74"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -6494,11 +6473,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="68"/>
-      <c r="I122" s="69"/>
-      <c r="J122" s="69"/>
-      <c r="K122" s="69"/>
-      <c r="L122" s="69"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -6565,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6598,10 +6577,10 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="6"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="5"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -6641,10 +6620,10 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="11"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="8"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
@@ -6684,10 +6663,10 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="11"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="7"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -6727,10 +6706,10 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="11"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="8"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="7"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
@@ -6770,10 +6749,10 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="11"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -6813,22 +6792,22 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="11"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="89"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
@@ -6856,22 +6835,22 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="11"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="59"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-      <c r="AM10" s="60"/>
+      <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
@@ -6899,22 +6878,22 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="11"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="96"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
-      <c r="AM11" s="60"/>
+      <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
@@ -6942,22 +6921,22 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="11"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="95"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="71"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="90"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
@@ -6985,22 +6964,22 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="11"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="90"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
@@ -7028,22 +7007,22 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="11"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="90"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
@@ -7071,22 +7050,22 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="11"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="59"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="7"/>
       <c r="AB15" s="8"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="90"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
@@ -7114,22 +7093,22 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="11"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="59"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="7"/>
       <c r="AB16" s="8"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="90"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
@@ -7157,22 +7136,22 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="11"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="8"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="90"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
@@ -7200,22 +7179,22 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="11"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="8"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="90"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
@@ -7243,22 +7222,22 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="11"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="59"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="90"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
@@ -7286,22 +7265,22 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="11"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="59"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="7"/>
       <c r="AB20" s="8"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="90"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
@@ -7310,93 +7289,93 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="11"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="11"/>
-    </row>
-    <row r="22" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D22" s="17"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="19"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="19"/>
-    </row>
-    <row r="23" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D21" s="17"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="19"/>
+    </row>
+    <row r="22" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+    </row>
+    <row r="23" spans="4:46" ht="64.8" x14ac:dyDescent="0.45">
       <c r="D23" s="65" t="s">
         <v>244</v>
       </c>
@@ -7405,91 +7384,91 @@
       </c>
       <c r="AA23" s="64"/>
     </row>
-    <row r="24" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="6"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="6"/>
+    <row r="24" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
     </row>
     <row r="25" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="11"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="6"/>
     </row>
     <row r="26" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" s="7"/>
@@ -7510,10 +7489,10 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="11"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="8"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="7"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
@@ -7553,10 +7532,10 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="11"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="8"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="7"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
@@ -7596,10 +7575,10 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="11"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="8"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
@@ -7639,10 +7618,10 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="11"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="8"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="7"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
@@ -7682,10 +7661,10 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="11"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="8"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
@@ -7725,10 +7704,10 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="11"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="8"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="7"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -7768,10 +7747,10 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="11"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="8"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
@@ -7811,10 +7790,10 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="11"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="8"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="7"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
@@ -7854,10 +7833,10 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="11"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="8"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="7"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
@@ -7897,10 +7876,10 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="11"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="8"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="7"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
@@ -7940,10 +7919,10 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="11"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="8"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="7"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
@@ -7983,10 +7962,10 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="11"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="8"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="7"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
@@ -8026,10 +8005,10 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="11"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="8"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
@@ -8069,10 +8048,10 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="11"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="8"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="7"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
@@ -8112,10 +8091,10 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="11"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="8"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="7"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
@@ -8155,10 +8134,10 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="19"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="21"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="17"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
@@ -8956,11 +8935,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9053,11 +9032,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9173,11 +9152,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9332,11 +9311,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B582112-FEE0-427F-9DFD-CC12E3624973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C1019C-9A8F-4C6E-97D2-A2B3C8D56FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
@@ -3684,6 +3684,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3731,9 +3734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5398,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5418,34 +5418,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5489,7 +5489,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="79" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -6336,29 +6336,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="79" t="s">
+      <c r="H112" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="80"/>
-      <c r="J112" s="80"/>
-      <c r="K112" s="80"/>
-      <c r="L112" s="80"/>
-      <c r="M112" s="83" t="s">
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="84"/>
+      <c r="N112" s="85"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="81"/>
-      <c r="I113" s="82"/>
-      <c r="J113" s="82"/>
-      <c r="K113" s="82"/>
-      <c r="L113" s="82"/>
-      <c r="M113" s="85"/>
-      <c r="N113" s="86"/>
+      <c r="H113" s="82"/>
+      <c r="I113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="83"/>
+      <c r="L113" s="83"/>
+      <c r="M113" s="86"/>
+      <c r="N113" s="87"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -6367,27 +6367,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="81"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="85"/>
-      <c r="N114" s="86"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="83"/>
+      <c r="J114" s="83"/>
+      <c r="K114" s="83"/>
+      <c r="L114" s="83"/>
+      <c r="M114" s="86"/>
+      <c r="N114" s="87"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="87" t="s">
+      <c r="H115" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="88"/>
-      <c r="J115" s="88"/>
-      <c r="K115" s="88"/>
-      <c r="L115" s="88"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="I115" s="89"/>
+      <c r="J115" s="89"/>
+      <c r="K115" s="89"/>
+      <c r="L115" s="89"/>
+      <c r="M115" s="86"/>
+      <c r="N115" s="87"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -6447,13 +6447,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="73" t="s">
+      <c r="H120" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="75"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -6461,11 +6461,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="73"/>
-      <c r="I121" s="74"/>
-      <c r="J121" s="74"/>
-      <c r="K121" s="74"/>
-      <c r="L121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -6473,11 +6473,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="75"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -6544,7 +6544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -7313,8 +7313,8 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
@@ -8170,7 +8170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -8935,11 +8935,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9032,11 +9032,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9152,11 +9152,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9311,11 +9311,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C1019C-9A8F-4C6E-97D2-A2B3C8D56FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929619D-7704-4993-A426-42C5EB174819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="1" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
-    <sheet name="全体的なイメージ" sheetId="1" r:id="rId1"/>
-    <sheet name="やることリスト" sheetId="10" r:id="rId2"/>
-    <sheet name="マップ制作案" sheetId="7" r:id="rId3"/>
-    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId4"/>
-    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId5"/>
-    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId6"/>
-    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId7"/>
-    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId8"/>
-    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId9"/>
+    <sheet name="表紙" sheetId="11" r:id="rId1"/>
+    <sheet name="ゲーム全体の流れ" sheetId="12" r:id="rId2"/>
+    <sheet name="必要な処理" sheetId="10" r:id="rId3"/>
+    <sheet name="ゲームの進行" sheetId="13" r:id="rId4"/>
+    <sheet name="全体的なイメージ" sheetId="1" r:id="rId5"/>
+    <sheet name="マップ制作案" sheetId="7" r:id="rId6"/>
+    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId7"/>
+    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId8"/>
+    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId9"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId10"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId11"/>
+    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="283">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2988,6 +2991,91 @@
     <rPh sb="5" eb="6">
       <t>ジョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メンバー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メンバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小笠原　彪</t>
+    <rPh sb="0" eb="3">
+      <t>オガサワラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>坂本　翔唯</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早川　友貴</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丹野　竜之介</t>
+    <rPh sb="0" eb="2">
+      <t>タンノ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リュウノスケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>堀川　萩大</t>
+    <rPh sb="0" eb="2">
+      <t>ホリカワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マサル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sh2ot</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2995,7 +3083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3076,8 +3164,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3189,6 +3300,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,7 +3593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3687,6 +3816,9 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3702,9 +3834,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3733,6 +3862,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5395,10 +5599,755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97113CC6-4DB6-4270-94C0-7183039EAE8F}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="109"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="110" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="112"/>
+    </row>
+    <row r="8" spans="2:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="110" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="110" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
+    </row>
+    <row r="15" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="F15:J16"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="F9:J10"/>
+    <mergeCell ref="F11:J12"/>
+    <mergeCell ref="F13:J14"/>
+    <mergeCell ref="B7:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
+  <dimension ref="B3:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
+  <dimension ref="B3:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
+  <dimension ref="B3:F28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661655F-09CF-431F-973D-2595BADAC812}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
+  <dimension ref="D3:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5418,34 +6367,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -5489,7 +6438,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -5497,7 +6446,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="79"/>
+      <c r="B15" s="74"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -6447,13 +7396,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="74" t="s">
+      <c r="H120" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="75"/>
-      <c r="J120" s="75"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="75"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="76"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -6461,11 +7410,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="74"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -6473,11 +7422,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="76"/>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -6505,42 +7454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
-  <dimension ref="D3:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="5" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
@@ -8166,7 +9080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="E3:L32"/>
   <sheetViews>
@@ -8510,7 +9424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
   <dimension ref="B4:S33"/>
   <sheetViews>
@@ -8916,7 +9830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
   <dimension ref="B3:F10"/>
   <sheetViews>
@@ -8935,11 +9849,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -9001,473 +9915,6 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
-  <dimension ref="B3:G14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
-  <dimension ref="B3:F23"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
-  <dimension ref="B3:F28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929619D-7704-4993-A426-42C5EB174819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FA298-2572-4853-833D-8E9EBFF27B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="1" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -3816,24 +3816,99 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3862,81 +3937,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3962,6 +3962,80 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27AF3FC-AD7B-4D5F-AF50-8B2D992FF071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="464820"/>
+          <a:ext cx="8298180" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4446,7 +4520,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4583,7 +4657,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5610,184 +5684,184 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="112"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="2:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="113" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="110" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="113" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5830,11 +5904,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -5950,11 +6024,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6109,11 +6183,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6283,13 +6357,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N21" sqref="N21:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6367,34 +6442,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -6438,7 +6513,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="104" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -6446,7 +6521,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="74"/>
+      <c r="B15" s="104"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -7285,29 +7360,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="80" t="s">
+      <c r="H112" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="81"/>
-      <c r="J112" s="81"/>
-      <c r="K112" s="81"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="84" t="s">
+      <c r="I112" s="106"/>
+      <c r="J112" s="106"/>
+      <c r="K112" s="106"/>
+      <c r="L112" s="106"/>
+      <c r="M112" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="85"/>
+      <c r="N112" s="110"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="82"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="86"/>
-      <c r="N113" s="87"/>
+      <c r="H113" s="107"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="108"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="111"/>
+      <c r="N113" s="112"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -7316,27 +7391,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="82"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="86"/>
-      <c r="N114" s="87"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="108"/>
+      <c r="L114" s="108"/>
+      <c r="M114" s="111"/>
+      <c r="N114" s="112"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="88" t="s">
+      <c r="H115" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="89"/>
-      <c r="M115" s="86"/>
-      <c r="N115" s="87"/>
+      <c r="I115" s="114"/>
+      <c r="J115" s="114"/>
+      <c r="K115" s="114"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="111"/>
+      <c r="N115" s="112"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -7396,13 +7471,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="75" t="s">
+      <c r="H120" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="76"/>
+      <c r="I120" s="100"/>
+      <c r="J120" s="100"/>
+      <c r="K120" s="100"/>
+      <c r="L120" s="100"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -7410,11 +7485,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="75"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="76"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="100"/>
+      <c r="J121" s="100"/>
+      <c r="K121" s="100"/>
+      <c r="L121" s="100"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -7422,11 +7497,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="77"/>
-      <c r="I122" s="78"/>
-      <c r="J122" s="78"/>
-      <c r="K122" s="78"/>
-      <c r="L122" s="78"/>
+      <c r="H122" s="101"/>
+      <c r="I122" s="102"/>
+      <c r="J122" s="102"/>
+      <c r="K122" s="102"/>
+      <c r="L122" s="102"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -9849,11 +9924,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FA298-2572-4853-833D-8E9EBFF27B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF269B-32A4-4C97-A643-BF84A540CDAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="1" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId11"/>
     <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">必要な処理!$D$3:$H$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="350">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -3076,6 +3079,598 @@
   </si>
   <si>
     <t>sh2ot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイかランキング表示の選択処理</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>センタクショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数選択処理</t>
+    <rPh sb="3" eb="7">
+      <t>ニンズウセンタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイモード選択処理</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアルのUI表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数分のプレイヤー表示</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数分のスコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数分の鍵UI表示</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアルの項目作成</t>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ制作A＿研究エリア</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ制作C＿生物収容エリア</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ制作B＿オフィスエリア</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ制作D＿崩壊エリア</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵AIの作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーとスコアアイテムの当たり判定</t>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーと鍵の当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーと敵の当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーとオブジェクトの当たり判定</t>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディットモードの作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーションを外部ファイルから読み込む処理</t>
+    <rPh sb="6" eb="8">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>床を４種類表示</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>脱出アイテムを４つ表示</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコアアイテムを多数表示</t>
+    <rPh sb="8" eb="10">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>脱出アイテムのランダムスポーンの設定</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出口の表示</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出口の近くにプレイヤーがいるときにアクションボタンで脱出出来る用に</t>
+    <rPh sb="0" eb="2">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵のランダムスポーン処理</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵を複数体表示</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動速度3段階処理</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面分割処理</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンブンカツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの追従処理</t>
+    <rPh sb="6" eb="10">
+      <t>ツイジュウショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動時の画面の縦揺れ処理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タテユ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要なモデルの制作</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードのクリアリザルト作成</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードのゲームオーバーリザルト作成</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードのランキング画面作成</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透モードのリザルト作成</t>
+    <rPh sb="0" eb="2">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透モードのランキング画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数分のライフ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>titleSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>playNumberSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayModeSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tutorial.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>score.cpp&amp;&amp;playNumberSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>player.cpp&amp;&amp;playNumberSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key.cpp&amp;&amp;playNumberSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>life.cpp&amp;&amp;playNumberSelect.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行画面のエディットにて</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>score.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Enemy.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Object00.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edit.cpp&amp;&amp;stage.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Enemy.cpp&amp;&amp;Model.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>field.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exit.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ceiling.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>player.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>camera.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メタセコとかマヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>result.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ranking.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井用のポリゴン４種類以上表示</t>
+    <rPh sb="0" eb="3">
+      <t>テンジョウヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3083,7 +3678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3187,8 +3782,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3318,6 +3921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3593,7 +4202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3816,6 +4425,9 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3937,6 +4549,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5684,184 +6299,184 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
     </row>
     <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="84"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="2:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="80" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="84"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="82" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="85"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="85"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="80" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="2:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="82" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="85"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5904,11 +6519,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6011,7 +6626,7 @@
   <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6024,11 +6639,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6183,11 +6798,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6356,7 +6971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661655F-09CF-431F-973D-2595BADAC812}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21:O22"/>
     </sheetView>
   </sheetViews>
@@ -6370,51 +6985,410 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
-  <dimension ref="D3:G3"/>
+  <dimension ref="D3:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D3" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="74" t="s">
         <v>271</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E43" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="B10:E11"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6442,34 +7416,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -6513,7 +7487,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -6521,7 +7495,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="104"/>
+      <c r="B15" s="105"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -7360,29 +8334,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="105" t="s">
+      <c r="H112" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="106"/>
-      <c r="J112" s="106"/>
-      <c r="K112" s="106"/>
-      <c r="L112" s="106"/>
-      <c r="M112" s="109" t="s">
+      <c r="I112" s="107"/>
+      <c r="J112" s="107"/>
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="110"/>
+      <c r="N112" s="111"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="107"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="108"/>
-      <c r="M113" s="111"/>
-      <c r="N113" s="112"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="109"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="109"/>
+      <c r="L113" s="109"/>
+      <c r="M113" s="112"/>
+      <c r="N113" s="113"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -7391,27 +8365,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="107"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="108"/>
-      <c r="M114" s="111"/>
-      <c r="N114" s="112"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="109"/>
+      <c r="J114" s="109"/>
+      <c r="K114" s="109"/>
+      <c r="L114" s="109"/>
+      <c r="M114" s="112"/>
+      <c r="N114" s="113"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="113" t="s">
+      <c r="H115" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="114"/>
-      <c r="J115" s="114"/>
-      <c r="K115" s="114"/>
-      <c r="L115" s="114"/>
-      <c r="M115" s="111"/>
-      <c r="N115" s="112"/>
+      <c r="I115" s="115"/>
+      <c r="J115" s="115"/>
+      <c r="K115" s="115"/>
+      <c r="L115" s="115"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="113"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -7471,13 +8445,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="99" t="s">
+      <c r="H120" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="100"/>
-      <c r="J120" s="100"/>
-      <c r="K120" s="100"/>
-      <c r="L120" s="100"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="101"/>
+      <c r="K120" s="101"/>
+      <c r="L120" s="101"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -7485,11 +8459,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="99"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
-      <c r="K121" s="100"/>
-      <c r="L121" s="100"/>
+      <c r="H121" s="100"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="101"/>
+      <c r="L121" s="101"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -7497,11 +8471,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="101"/>
-      <c r="I122" s="102"/>
-      <c r="J122" s="102"/>
-      <c r="K122" s="102"/>
-      <c r="L122" s="102"/>
+      <c r="H122" s="102"/>
+      <c r="I122" s="103"/>
+      <c r="J122" s="103"/>
+      <c r="K122" s="103"/>
+      <c r="L122" s="103"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -7533,7 +8507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D3:AT41"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -9924,11 +10898,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF269B-32A4-4C97-A643-BF84A540CDAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33194995-6849-4BC0-B3C9-E60588AC1827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="352">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -3662,14 +3662,142 @@
   </si>
   <si>
     <t>各種操作方法</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～透走モード～
+決められた鍵の数を出口に使い、脱出することでクリア
+全員が敵に倒されたり、制限時間以内に脱出できなければゲームオーバーとなる
+～悪透モード～
+悪透となる人物が一人いてその人物に勝たせないようにするモード
+悪透になった人物は指定された順位で脱出すると勝利する
+悪透じゃない人は悪透を探りながら悪透が指定された順位にならなければ勝利</t>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="45" eb="51">
+      <t>セイゲンジカンイナイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左スティックを倒す：移動
+左スティックを少し倒す：忍び足
+左スティック+Rボタン：ダッシュ
+AボタンorBボタン：アクションボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3791,7 +3919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3927,6 +4055,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4202,7 +4336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4503,6 +4637,9 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4518,9 +4655,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4551,8 +4685,41 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6519,11 +6686,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6639,11 +6806,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6798,11 +6965,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6987,8 +7154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
   <dimension ref="D3:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7345,46 +7512,310 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
-  <dimension ref="B4:E11"/>
+  <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="116" t="s">
+    <row r="3" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="118" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="116" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="121"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="122"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="124"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="123"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="124"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="123"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="124"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="123"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="124"/>
+    </row>
+    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="123"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="124"/>
+    </row>
+    <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="123"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="124"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="123"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="124"/>
+    </row>
+    <row r="13" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
+    </row>
+    <row r="14" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
+    </row>
+    <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="121"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="122"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="124"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="123"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="124"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="123"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="124"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="123"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="124"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="123"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="124"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="123"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="124"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="123"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="124"/>
+    </row>
+    <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="B10:E11"/>
+  <mergeCells count="4">
+    <mergeCell ref="B6:M13"/>
+    <mergeCell ref="B15:M16"/>
+    <mergeCell ref="B17:M24"/>
+    <mergeCell ref="B4:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7416,34 +7847,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -7487,7 +7918,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -7495,7 +7926,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="105"/>
+      <c r="B15" s="100"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -8445,13 +8876,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="100" t="s">
+      <c r="H120" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="101"/>
-      <c r="J120" s="101"/>
-      <c r="K120" s="101"/>
-      <c r="L120" s="101"/>
+      <c r="I120" s="102"/>
+      <c r="J120" s="102"/>
+      <c r="K120" s="102"/>
+      <c r="L120" s="102"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -8459,11 +8890,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="100"/>
-      <c r="I121" s="101"/>
-      <c r="J121" s="101"/>
-      <c r="K121" s="101"/>
-      <c r="L121" s="101"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="102"/>
+      <c r="J121" s="102"/>
+      <c r="K121" s="102"/>
+      <c r="L121" s="102"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -8471,11 +8902,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="102"/>
-      <c r="I122" s="103"/>
-      <c r="J122" s="103"/>
-      <c r="K122" s="103"/>
-      <c r="L122" s="103"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="104"/>
+      <c r="J122" s="104"/>
+      <c r="K122" s="104"/>
+      <c r="L122" s="104"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -10898,11 +11329,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33194995-6849-4BC0-B3C9-E60588AC1827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B06E545-DDE2-47E2-8988-DA8C04287EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="2" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="10" activeTab="12" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId10"/>
     <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId11"/>
     <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId12"/>
+    <sheet name="リザルト画面_必要になる処理" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">必要な処理!$D$3:$H$16</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="371">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -3798,6 +3799,265 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>牢屋</t>
+    <rPh sb="0" eb="2">
+      <t>ロウヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>机系統</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコア用のアイテム</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>resultUI.cpp・リザルトUI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードと悪透モードのリザルト分岐を作る</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードの場合成功失敗の分岐を作る</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分岐のぶんのテクスチャなどを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透モードの場合のみ表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透が勝った場合、悪透のスコアを記憶しランキング画面に反映させる</t>
+    <rPh sb="0" eb="2">
+      <t>ワルトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透走モードの場合のみ表示する</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成功時のみクリアタイムをランキング画面に反映させる</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>result.cpp・リザルト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の画面に行けるかどうかのboolを作成する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>boolがtrueのときAボタンやスタートボタン入力でランキング画面へ移行する</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果発表的な演出が終わるまでboolをfalseにする</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model.cpp・モデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリアした時の人数分のモデルを表示する</t>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニンズウブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪透モードの悪透勝利時のみ一人のモデルを表示</t>
+    <rPh sb="0" eb="2">
+      <t>アクス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アクス</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勝利モーションみたいな物ができたらいいな</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4637,24 +4897,60 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4684,42 +4980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6686,11 +6946,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6793,7 +7053,7 @@
   <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F23" sqref="B3:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6806,11 +7066,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -6965,11 +7225,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -7131,6 +7391,125 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE777A9-C827-4ECB-8008-AA139CD7E203}">
+  <dimension ref="B3:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="63.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C3" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7154,8 +7533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
   <dimension ref="D3:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7514,7 +7893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -7522,293 +7901,293 @@
   <sheetData>
     <row r="3" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="121"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="122"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="124"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="123"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="124"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="123"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="124"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="123"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="124"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="123"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="124"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="123"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="124"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="123"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="124"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="122"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="111"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="100" t="s">
         <v>351</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="124"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="123"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="124"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="123"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="124"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="123"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="124"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="123"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="124"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="102"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="123"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="124"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="123"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="124"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
     </row>
     <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7827,7 +8206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -7847,34 +8226,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -7918,7 +8297,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="117" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -7926,7 +8305,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="100"/>
+      <c r="B15" s="117"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -8765,29 +9144,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="106" t="s">
+      <c r="H112" s="118" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="107"/>
-      <c r="J112" s="107"/>
-      <c r="K112" s="107"/>
-      <c r="L112" s="107"/>
-      <c r="M112" s="110" t="s">
+      <c r="I112" s="119"/>
+      <c r="J112" s="119"/>
+      <c r="K112" s="119"/>
+      <c r="L112" s="119"/>
+      <c r="M112" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="N112" s="111"/>
+      <c r="N112" s="123"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="108"/>
-      <c r="I113" s="109"/>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="112"/>
-      <c r="N113" s="113"/>
+      <c r="H113" s="120"/>
+      <c r="I113" s="121"/>
+      <c r="J113" s="121"/>
+      <c r="K113" s="121"/>
+      <c r="L113" s="121"/>
+      <c r="M113" s="124"/>
+      <c r="N113" s="125"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -8796,27 +9175,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="108"/>
-      <c r="I114" s="109"/>
-      <c r="J114" s="109"/>
-      <c r="K114" s="109"/>
-      <c r="L114" s="109"/>
-      <c r="M114" s="112"/>
-      <c r="N114" s="113"/>
+      <c r="H114" s="120"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="121"/>
+      <c r="L114" s="121"/>
+      <c r="M114" s="124"/>
+      <c r="N114" s="125"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="114" t="s">
+      <c r="H115" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="I115" s="115"/>
-      <c r="J115" s="115"/>
-      <c r="K115" s="115"/>
-      <c r="L115" s="115"/>
-      <c r="M115" s="112"/>
-      <c r="N115" s="113"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="127"/>
+      <c r="L115" s="127"/>
+      <c r="M115" s="124"/>
+      <c r="N115" s="125"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -8876,13 +9255,13 @@
       <c r="F120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H120" s="101" t="s">
+      <c r="H120" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="I120" s="102"/>
-      <c r="J120" s="102"/>
-      <c r="K120" s="102"/>
-      <c r="L120" s="102"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -8890,11 +9269,11 @@
       <c r="F121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H121" s="101"/>
-      <c r="I121" s="102"/>
-      <c r="J121" s="102"/>
-      <c r="K121" s="102"/>
-      <c r="L121" s="102"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="113"/>
+      <c r="J121" s="113"/>
+      <c r="K121" s="113"/>
+      <c r="L121" s="113"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -8902,11 +9281,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H122" s="103"/>
-      <c r="I122" s="104"/>
-      <c r="J122" s="104"/>
-      <c r="K122" s="104"/>
-      <c r="L122" s="104"/>
+      <c r="H122" s="114"/>
+      <c r="I122" s="115"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="115"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -8939,7 +9318,7 @@
   <dimension ref="D3:AT41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10562,15 +10941,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="E3:L32"/>
+  <dimension ref="E3:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
@@ -10588,12 +10968,12 @@
     </row>
     <row r="4" spans="5:12" x14ac:dyDescent="0.45">
       <c r="G4">
-        <f>SUM(G7:G32)</f>
-        <v>45</v>
+        <f>SUM(G7:G112)</f>
+        <v>47</v>
       </c>
       <c r="H4">
-        <f>SUM(H7:H32)</f>
-        <v>371</v>
+        <f>SUM(H7:H54)</f>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.45">
@@ -10785,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.45">
@@ -10801,13 +11181,13 @@
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.45">
@@ -10851,7 +11231,7 @@
         <v>6</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.45">
@@ -10896,6 +11276,28 @@
       </c>
       <c r="H32">
         <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>354</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11329,11 +11731,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA8245B-7466-43BC-8BC9-7437AD2FD3AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5034E3-12F6-424F-8EF3-8460765DCA8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="5" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="5" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="338">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -3474,6 +3474,246 @@
   </si>
   <si>
     <t>ガントチャートにあります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアル画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古びた紙</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト00</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト01</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト02</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト03</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト04</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明テキスト05</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境音(未定</t>
+    <rPh sb="0" eb="3">
+      <t>カンキョウオト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TutorialStage00.txt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Title.txt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外から見た施設</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜の空</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>道</t>
+    <rPh sb="0" eb="1">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャA01</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャA02</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャA03</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャA04</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャB01</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャB02</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャB03</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャB04</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャC01</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャC02</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャC03</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャC04</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャD01</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャD02</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャD03</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁テクスチャD04</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁のテクスチャ</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8402,7 +8642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
   <dimension ref="D2:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -10055,21 +10295,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="E3:L34"/>
+  <dimension ref="E3:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:12" x14ac:dyDescent="0.45">
@@ -10083,11 +10322,11 @@
     <row r="4" spans="5:12" x14ac:dyDescent="0.45">
       <c r="G4">
         <f>SUM(G7:G112)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <f>SUM(H7:H54)</f>
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.45">
@@ -10117,6 +10356,15 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7" t="s">
         <v>2</v>
       </c>
@@ -10126,60 +10374,43 @@
       <c r="K7" t="s">
         <v>81</v>
       </c>
+      <c r="L7" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>317</v>
+      </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>318</v>
+      </c>
       <c r="K9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E11" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>87</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
-        <v>15</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -10188,235 +10419,370 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>6</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>87</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>15</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>321</v>
+      </c>
+      <c r="J21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="H22">
-        <v>30</v>
+      <c r="I22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F34" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>300</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>305</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10425,7 +10791,7 @@
   <dimension ref="B4:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5034E3-12F6-424F-8EF3-8460765DCA8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296156BC-9DAD-4650-BE3E-E4B2C25DAB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="5" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="8" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="360">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -893,16 +893,6 @@
   </si>
   <si>
     <t>title.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>表示するだけで良い</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3713,6 +3703,302 @@
     <t>壁のテクスチャ</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rain.cpp・雨</t>
+    <rPh sb="9" eb="10">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビルボードで複数表示する</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面の上からmoveの値をランダムで下に降らせる</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最初は非表示でボタン入力時の雷演出後に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>エンシュツゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紙をめくる音</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雷演出後に雨をピタッととめる</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン入力時に3Dの白いポリゴンを画面全体に一瞬だけ表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンゼンタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン入力時に雷のSEを鳴らす</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thunder.cpp・雷</t>
+    <rPh sb="12" eb="13">
+      <t>カミナリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moon.cpp・月</t>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビルボードで１つ表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤みがかった満月のテクスチャがいいな</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meshdome.cpp・メッシュドーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン入力前は雨の時のテクスチャで表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン入力後は雨がやんだ夜空のテクスチャに変更</t>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨゾラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設全体を包み、背景として使う</t>
+    <rPh sb="0" eb="4">
+      <t>シセツゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Object00・オブジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外から見た施設を表示</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩や木などを少し表示</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>camera.cpp・カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設全体が見えるように初期位置を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ選択時に施設の入り口までカメラが移動しフェードする</t>
+    <rPh sb="3" eb="6">
+      <t>センタクトキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6384,7 +6670,7 @@
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
@@ -6408,7 +6694,7 @@
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -6432,15 +6718,15 @@
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="95"/>
       <c r="D7" s="80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
@@ -6462,11 +6748,11 @@
       <c r="B9" s="94"/>
       <c r="C9" s="95"/>
       <c r="D9" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
@@ -6488,11 +6774,11 @@
       <c r="B11" s="94"/>
       <c r="C11" s="95"/>
       <c r="D11" s="82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="83"/>
@@ -6514,11 +6800,11 @@
       <c r="B13" s="94"/>
       <c r="C13" s="95"/>
       <c r="D13" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="81"/>
       <c r="F13" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
@@ -6540,11 +6826,11 @@
       <c r="B15" s="94"/>
       <c r="C15" s="95"/>
       <c r="D15" s="82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="83"/>
       <c r="F15" s="83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
@@ -6604,17 +6890,17 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
@@ -6622,16 +6908,16 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>144</v>
       </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
@@ -6639,61 +6925,61 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6724,14 +7010,14 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
@@ -6739,13 +7025,13 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
@@ -6753,105 +7039,105 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6883,14 +7169,14 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
@@ -6898,13 +7184,13 @@
         <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
@@ -6912,133 +7198,133 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7069,14 +7355,14 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C3" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -7084,10 +7370,10 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
@@ -7095,70 +7381,70 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7204,7 +7490,7 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7227,7 +7513,7 @@
     <row r="3" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -7257,7 +7543,7 @@
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -7372,7 +7658,7 @@
     <row r="14" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
@@ -7402,7 +7688,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
@@ -7610,10 +7896,10 @@
         <v>74</v>
       </c>
       <c r="M7" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>204</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
@@ -7765,7 +8051,7 @@
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -7781,72 +8067,72 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="H44" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L44" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F45" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L45" s="46"/>
       <c r="M45" s="8"/>
       <c r="N45" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F46" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H47" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -7854,62 +8140,62 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H48" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
       <c r="H49" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="46"/>
       <c r="K49" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L49" s="46"/>
       <c r="M49" s="8"/>
       <c r="N49" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
       <c r="H50" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -8297,7 +8583,7 @@
     </row>
     <row r="88" spans="4:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D88" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
         <v>62</v>
@@ -8306,7 +8592,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -8325,7 +8611,7 @@
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.45">
@@ -8418,10 +8704,10 @@
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" t="s">
         <v>216</v>
-      </c>
-      <c r="F98" t="s">
-        <v>217</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="58" t="s">
@@ -8435,7 +8721,7 @@
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8"/>
@@ -8456,7 +8742,7 @@
     </row>
     <row r="111" spans="4:14" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
@@ -8470,14 +8756,14 @@
         <v>16</v>
       </c>
       <c r="H112" s="117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I112" s="118"/>
       <c r="J112" s="118"/>
       <c r="K112" s="118"/>
       <c r="L112" s="118"/>
       <c r="M112" s="121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N112" s="122"/>
     </row>
@@ -8513,7 +8799,7 @@
         <v>22</v>
       </c>
       <c r="H115" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I115" s="126"/>
       <c r="J115" s="126"/>
@@ -8539,7 +8825,7 @@
         <v>25</v>
       </c>
       <c r="G117" s="63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="8"/>
@@ -8551,10 +8837,10 @@
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="H118" s="59"/>
       <c r="I118" s="8"/>
@@ -8566,7 +8852,7 @@
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H119" s="59"/>
       <c r="I119" s="8"/>
@@ -8578,10 +8864,10 @@
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F120" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H120" s="111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I120" s="112"/>
       <c r="J120" s="112"/>
@@ -8592,7 +8878,7 @@
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F121" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H121" s="111"/>
       <c r="I121" s="112"/>
@@ -8604,7 +8890,7 @@
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F122" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H122" s="113"/>
       <c r="I122" s="114"/>
@@ -8616,10 +8902,10 @@
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F123" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N123" s="63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8650,7 +8936,7 @@
   <sheetData>
     <row r="2" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G2" s="127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="127"/>
       <c r="I2" s="127"/>
@@ -8676,10 +8962,10 @@
     </row>
     <row r="3" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z3" s="65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -9501,10 +9787,10 @@
     </row>
     <row r="23" spans="4:46" ht="64.8" x14ac:dyDescent="0.45">
       <c r="D23" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z23" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA23" s="64"/>
     </row>
@@ -10295,10 +10581,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="E3:L49"/>
+  <dimension ref="E3:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10308,6 +10594,7 @@
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10325,8 +10612,8 @@
         <v>49</v>
       </c>
       <c r="H4">
-        <f>SUM(H7:H54)</f>
-        <v>732</v>
+        <f>SUM(H7:H50)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.45">
@@ -10357,7 +10644,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -10375,18 +10662,18 @@
         <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
@@ -10394,7 +10681,7 @@
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K9" t="s">
         <v>83</v>
@@ -10402,7 +10689,12 @@
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.45">
@@ -10494,289 +10786,292 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" t="s">
+        <v>342</v>
+      </c>
+      <c r="L22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F51" t="s">
         <v>87</v>
       </c>
-      <c r="G21">
+      <c r="G51">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
         <v>321</v>
       </c>
-      <c r="J21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22">
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-      <c r="I23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F26" t="s">
+      <c r="I65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
         <v>285</v>
       </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27">
+      <c r="G66">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-      <c r="I30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H66">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F36" t="s">
-        <v>286</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>300</v>
-      </c>
-      <c r="I36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E42" t="s">
-        <v>305</v>
-      </c>
-      <c r="I42" t="s">
-        <v>306</v>
-      </c>
-      <c r="J42" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I43" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I47" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I48" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I49" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -10805,31 +11100,31 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>15</v>
@@ -10847,15 +11142,15 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -10864,12 +11159,12 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>15</v>
@@ -10885,15 +11180,15 @@
         <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>15</v>
@@ -10903,15 +11198,15 @@
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
         <v>170</v>
-      </c>
-      <c r="C11" t="s">
-        <v>171</v>
       </c>
       <c r="I11" s="44" t="s">
         <v>15</v>
@@ -10923,69 +11218,69 @@
         <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="40"/>
       <c r="S13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2"/>
       <c r="S14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="8"/>
       <c r="G17" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>15</v>
@@ -11003,16 +11298,16 @@
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="8"/>
       <c r="G19" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -11021,12 +11316,12 @@
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>15</v>
@@ -11042,12 +11337,12 @@
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I21" s="44" t="s">
         <v>15</v>
@@ -11057,12 +11352,12 @@
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -11076,49 +11371,49 @@
         <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G28" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
@@ -11140,7 +11435,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G30" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -11194,25 +11489,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
-  <dimension ref="B3:F10"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.69921875" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
@@ -11227,13 +11522,13 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
         <v>146</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
@@ -11241,42 +11536,118 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,28 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296156BC-9DAD-4650-BE3E-E4B2C25DAB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F2F1A-4628-4F4C-B38A-EE95ADDE660B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="8" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="3" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
     <sheet name="ゲーム全体の流れ" sheetId="12" r:id="rId2"/>
-    <sheet name="必要な処理" sheetId="10" r:id="rId3"/>
-    <sheet name="ゲームの進行" sheetId="13" r:id="rId4"/>
+    <sheet name="ゲームの進行" sheetId="13" r:id="rId3"/>
+    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId4"/>
     <sheet name="全体的なイメージ" sheetId="1" r:id="rId5"/>
-    <sheet name="マップ制作案" sheetId="7" r:id="rId6"/>
-    <sheet name="必要になるデータを置く場所" sheetId="2" r:id="rId7"/>
-    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId8"/>
-    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId9"/>
-    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId10"/>
-    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId11"/>
-    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId12"/>
-    <sheet name="リザルト画面_必要になる処理" sheetId="14" r:id="rId13"/>
+    <sheet name="ゲームの大枠となる処理" sheetId="6" r:id="rId6"/>
+    <sheet name="タイトル画面_必要になる処理" sheetId="3" r:id="rId7"/>
+    <sheet name="モード選択画面_必要になる処理" sheetId="4" r:id="rId8"/>
+    <sheet name="チュートリアル画面_必要になる処理" sheetId="5" r:id="rId9"/>
+    <sheet name="ゲーム画面_必要になる処理" sheetId="9" r:id="rId10"/>
+    <sheet name="リザルト画面_必要になる処理" sheetId="14" r:id="rId11"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">必要な処理!$D$3:$H$16</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="381">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -2724,18 +2719,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A研究エリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bオフィスエリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D崩壊エリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲームの大枠となる処理を参照してください</t>
     <rPh sb="12" eb="14">
       <t>サンショウ</t>
@@ -2949,16 +2932,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ミケタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C生物収容所</t>
-    <rPh sb="3" eb="5">
-      <t>シュウヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3456,17 +3429,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ガントーチャートの方にあります。</t>
-    <rPh sb="9" eb="10">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ガントチャートにあります</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チュートリアル画面</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -3999,6 +3961,187 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れ</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム進行</t>
+    <rPh sb="3" eb="5">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要となるデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体的なイメージ</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大枠となる処理</t>
+    <rPh sb="0" eb="2">
+      <t>オオワク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モード選択画面</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアル画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れ!A1</t>
+  </si>
+  <si>
+    <t>ゲームの進行!A1</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A1</t>
+  </si>
+  <si>
+    <t>全体的なイメージ!A1</t>
+  </si>
+  <si>
+    <t>ゲームの大枠となる処理!A1</t>
+  </si>
+  <si>
+    <t>タイトル画面_必要になる処理!A1</t>
+  </si>
+  <si>
+    <t>モード選択画面_必要になる処理!A1</t>
+  </si>
+  <si>
+    <t>チュートリアル画面_必要になる処理!A1</t>
+  </si>
+  <si>
+    <t>ゲーム画面_必要になる処理!A1</t>
+  </si>
+  <si>
+    <t>リザルト画面_必要になる処理!A1</t>
+  </si>
+  <si>
+    <t>目次へ戻る</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表紙!A1</t>
+  </si>
+  <si>
+    <t>door.cpp・ドア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引っ張って開けるタイプのドアのモデル</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル制作時にY軸の中心をドアノブがないほうの端っこにすること</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移前ににrot.yを回してドアが開くようにする</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4007,7 +4150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4065,30 +4208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="40"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="40"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="28"/>
       <color theme="1"/>
@@ -4120,15 +4239,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4239,12 +4400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4268,7 +4423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -4521,11 +4676,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -4533,13 +4712,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4732,37 +5093,73 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4780,61 +5177,124 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4855,22 +5315,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4921,11 +5381,33 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4974,7 +5456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089660" y="464820"/>
+          <a:off x="1089660" y="472440"/>
           <a:ext cx="8298180" cy="4686300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5413,7 +5895,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>749358</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>14007</xdr:rowOff>
+      <xdr:rowOff>14008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5506,143 +5988,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>69271</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>249381</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C1F5FD-A46A-45C9-B7D4-8043CB65E7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13369635" y="207818"/>
-          <a:ext cx="5999019" cy="4641274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>249383</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AEE6AC-E86A-42CA-9416-25B6C2F345B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13369637" y="5361709"/>
-          <a:ext cx="5999019" cy="4516582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6659,503 +7004,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97113CC6-4DB6-4270-94C0-7183039EAE8F}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="111"/>
+    </row>
+    <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="111"/>
+    </row>
+    <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+    </row>
+    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="117"/>
+    </row>
+    <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="120"/>
+    </row>
+    <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="120"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="123"/>
+    </row>
+    <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="103"/>
+    </row>
+    <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="105"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
-    </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="80" t="s">
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="103"/>
+    </row>
+    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="105"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="103"/>
+    </row>
+    <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="105"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="84"/>
-    </row>
-    <row r="8" spans="2:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="85"/>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81" t="s">
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="103"/>
+    </row>
+    <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="105"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="84"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="85"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="85"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="84"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="85"/>
-    </row>
-    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="103"/>
+    </row>
+    <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="105"/>
+    </row>
+    <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+    </row>
+    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+    </row>
+    <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
+    </row>
+    <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+    </row>
+    <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+    </row>
+    <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="67"/>
+    </row>
+    <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
+    </row>
+    <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+    </row>
+    <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65"/>
+    </row>
+    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="67"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B33" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="69"/>
+    </row>
+    <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="F15:J16"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="F9:J10"/>
-    <mergeCell ref="F11:J12"/>
-    <mergeCell ref="F13:J14"/>
-    <mergeCell ref="B7:C16"/>
-    <mergeCell ref="D9:E10"/>
+  <mergeCells count="34">
+    <mergeCell ref="B3:Q6"/>
+    <mergeCell ref="B7:Q10"/>
+    <mergeCell ref="B11:C20"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F11:Q12"/>
+    <mergeCell ref="F13:Q14"/>
+    <mergeCell ref="F15:Q16"/>
+    <mergeCell ref="F17:Q18"/>
+    <mergeCell ref="F19:Q20"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="F25:I26" location="ゲーム全体の流れ!A1" display="ゲーム全体の流れ!A1" xr:uid="{804C545C-531A-47BD-BCD2-46BD278431E7}"/>
+    <hyperlink ref="F27:I28" location="ゲームの進行!A1" display="ゲームの進行!A1" xr:uid="{7F1E41F7-1C87-4B54-9205-6C9402D5B0BC}"/>
+    <hyperlink ref="F29:I30" location="必要になるデータを置く場所!A1" display="必要になるデータを置く場所!A1" xr:uid="{BA37A412-61F5-441E-972C-3859A318DF7B}"/>
+    <hyperlink ref="F31:I32" location="全体的なイメージ!A1" display="全体的なイメージ!A1" xr:uid="{3126E803-D8D1-4269-8CB3-332EB07F38BF}"/>
+    <hyperlink ref="F33:I34" location="ゲームの大枠となる処理!A1" display="ゲームの大枠となる処理!A1" xr:uid="{32B618FC-CB47-4D4D-9ABC-EF630046797D}"/>
+    <hyperlink ref="N25:Q26" location="タイトル画面_必要になる処理!A1" display="タイトル画面_必要になる処理!A1" xr:uid="{2617524A-2227-4560-B4A9-99CB2BCB7112}"/>
+    <hyperlink ref="N27:Q28" location="モード選択画面_必要になる処理!A1" display="モード選択画面_必要になる処理!A1" xr:uid="{E82BC0BB-3851-417C-BDAC-B77C68DDA90D}"/>
+    <hyperlink ref="N29:Q30" location="チュートリアル画面_必要になる処理!A1" display="チュートリアル画面_必要になる処理!A1" xr:uid="{50CFF244-8EC2-425D-8EA2-7B7DD18F4B50}"/>
+    <hyperlink ref="N31:Q32" location="ゲーム画面_必要になる処理!A1" display="ゲーム画面_必要になる処理!A1" xr:uid="{6985AC76-B54C-4279-8E35-A97A9AEEA974}"/>
+    <hyperlink ref="N33:Q34" location="リザルト画面_必要になる処理!A1" display="リザルト画面_必要になる処理!A1" xr:uid="{1B38E8F7-DB85-403E-82EE-133774757999}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
-  <dimension ref="B3:G14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
-  <dimension ref="B3:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
-  <dimension ref="B3:F28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7167,19 +7694,35 @@
     <col min="6" max="6" width="50.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="116" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>105</v>
       </c>
@@ -7193,7 +7736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>106</v>
       </c>
@@ -7204,30 +7747,30 @@
         <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>166</v>
       </c>
@@ -7237,21 +7780,21 @@
         <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" t="s">
         <v>252</v>
-      </c>
-      <c r="E18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
@@ -7259,10 +7802,10 @@
         <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
@@ -7270,10 +7813,10 @@
         <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
@@ -7281,68 +7824,73 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{5ECA29D1-9B1B-4C5B-9964-63C571E52B85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE777A9-C827-4ECB-8008-AA139CD7E203}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7353,461 +7901,1024 @@
     <col min="6" max="6" width="49.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="116" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{CD318520-0FA0-4232-890B-66F15125D6D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661655F-09CF-431F-973D-2595BADAC812}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{C046D1F2-8256-4A6B-8399-AEEADC9278F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F7C6C-369F-4CC5-92A7-D953F0535764}">
-  <dimension ref="D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
-        <v>302</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="143"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="134"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="134"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="134"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="134"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="134"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="134"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="143"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="134"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="134"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="132"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="134"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="132"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="134"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="132"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="134"/>
+    </row>
+    <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:M13"/>
+    <mergeCell ref="B15:M16"/>
+    <mergeCell ref="B17:M24"/>
+    <mergeCell ref="B4:M5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{0F84C0D9-16EB-49F0-B3D7-5A5E91661360}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78A6934-FEB2-410C-9468-96C66A069FCE}">
-  <dimension ref="B3:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="105" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <f>SUM(G7:G112)</f>
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H7:H50)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" t="s">
+        <v>306</v>
+      </c>
+      <c r="K22" t="s">
+        <v>336</v>
+      </c>
+      <c r="L22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>314</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="99" t="s">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
-    </row>
-    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
-    </row>
-    <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
-    </row>
-    <row r="14" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
-    </row>
-    <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="99" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
-    </row>
-    <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:M13"/>
-    <mergeCell ref="B15:M16"/>
-    <mergeCell ref="B17:M24"/>
-    <mergeCell ref="B4:M5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{93B85948-2234-4175-A6F6-3B639A837114}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7817,8 +8928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106:P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7836,42 +8947,42 @@
     <col min="14" max="14" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="115" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-    </row>
-    <row r="5" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -7888,7 +8999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K7" s="33" t="s">
         <v>73</v>
       </c>
@@ -7902,26 +9013,43 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="M9" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="N9" s="129"/>
+      <c r="O9" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="P9" s="65"/>
+    </row>
+    <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="116" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="149"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -8162,7 +9290,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
       <c r="H49" s="51" t="s">
         <v>212</v>
@@ -8178,7 +9306,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
       <c r="H50" s="55" t="s">
         <v>212</v>
@@ -8198,7 +9326,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D51" s="2"/>
       <c r="I51" s="23" t="s">
         <v>51</v>
@@ -8207,7 +9335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:16" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D55" s="3" t="s">
         <v>28</v>
       </c>
@@ -8218,19 +9346,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D56" s="2"/>
       <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="M56" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="N56" s="129"/>
+      <c r="O56" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="P56" s="65"/>
+    </row>
+    <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="M57" s="130"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="67"/>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
       <c r="E58" t="s">
         <v>63</v>
@@ -8239,12 +9379,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D60" s="2"/>
       <c r="F60" s="2" t="s">
         <v>24</v>
@@ -8253,7 +9393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F61" s="2" t="s">
         <v>25</v>
       </c>
@@ -8269,7 +9409,7 @@
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E62" s="2" t="s">
         <v>29</v>
       </c>
@@ -8288,7 +9428,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E63" s="2"/>
       <c r="F63" t="s">
         <v>31</v>
@@ -8305,7 +9445,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E64" s="2"/>
       <c r="F64" t="s">
         <v>32</v>
@@ -8692,7 +9832,7 @@
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
         <v>64</v>
       </c>
@@ -8702,7 +9842,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
         <v>215</v>
       </c>
@@ -8719,7 +9859,7 @@
       </c>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
         <v>217</v>
       </c>
@@ -8729,18 +9869,35 @@
       <c r="K99" s="8"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H100" s="17"/>
       <c r="I100" s="21"/>
       <c r="K100" s="21"/>
       <c r="L100" s="19"/>
     </row>
-    <row r="101" spans="4:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J101" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="4:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="105" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="106" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="M106" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="N106" s="129"/>
+      <c r="O106" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="P106" s="65"/>
+    </row>
+    <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M107" s="130"/>
+      <c r="N107" s="131"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="67"/>
+    </row>
+    <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
         <v>232</v>
       </c>
@@ -8751,33 +9908,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="117" t="s">
+      <c r="H112" s="150" t="s">
         <v>236</v>
       </c>
-      <c r="I112" s="118"/>
-      <c r="J112" s="118"/>
-      <c r="K112" s="118"/>
-      <c r="L112" s="118"/>
-      <c r="M112" s="121" t="s">
+      <c r="I112" s="151"/>
+      <c r="J112" s="151"/>
+      <c r="K112" s="151"/>
+      <c r="L112" s="151"/>
+      <c r="M112" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="N112" s="122"/>
+      <c r="N112" s="155"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="119"/>
-      <c r="I113" s="120"/>
-      <c r="J113" s="120"/>
-      <c r="K113" s="120"/>
-      <c r="L113" s="120"/>
-      <c r="M113" s="123"/>
-      <c r="N113" s="124"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="153"/>
+      <c r="J113" s="153"/>
+      <c r="K113" s="153"/>
+      <c r="L113" s="153"/>
+      <c r="M113" s="156"/>
+      <c r="N113" s="157"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -8786,27 +9943,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="119"/>
-      <c r="I114" s="120"/>
-      <c r="J114" s="120"/>
-      <c r="K114" s="120"/>
-      <c r="L114" s="120"/>
-      <c r="M114" s="123"/>
-      <c r="N114" s="124"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="153"/>
+      <c r="J114" s="153"/>
+      <c r="K114" s="153"/>
+      <c r="L114" s="153"/>
+      <c r="M114" s="156"/>
+      <c r="N114" s="157"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="125" t="s">
+      <c r="H115" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="I115" s="126"/>
-      <c r="J115" s="126"/>
-      <c r="K115" s="126"/>
-      <c r="L115" s="126"/>
-      <c r="M115" s="123"/>
-      <c r="N115" s="124"/>
+      <c r="I115" s="159"/>
+      <c r="J115" s="159"/>
+      <c r="K115" s="159"/>
+      <c r="L115" s="159"/>
+      <c r="M115" s="156"/>
+      <c r="N115" s="157"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -8866,13 +10023,13 @@
       <c r="F120" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H120" s="111" t="s">
+      <c r="H120" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="112"/>
-      <c r="L120" s="112"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="145"/>
+      <c r="L120" s="145"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
@@ -8880,11 +10037,11 @@
       <c r="F121" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H121" s="111"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
+      <c r="H121" s="144"/>
+      <c r="I121" s="145"/>
+      <c r="J121" s="145"/>
+      <c r="K121" s="145"/>
+      <c r="L121" s="145"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
@@ -8892,11 +10049,11 @@
       <c r="F122" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H122" s="113"/>
-      <c r="I122" s="114"/>
-      <c r="J122" s="114"/>
-      <c r="K122" s="114"/>
-      <c r="L122" s="114"/>
+      <c r="H122" s="146"/>
+      <c r="I122" s="147"/>
+      <c r="J122" s="147"/>
+      <c r="K122" s="147"/>
+      <c r="L122" s="147"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
@@ -8909,15 +10066,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="H112:L114"/>
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="O9:P10" location="表紙!A1" display="表紙!A1" xr:uid="{FD0C4638-780C-4F02-BA9C-BDB27276123D}"/>
+    <hyperlink ref="O56:P57" location="表紙!A1" display="表紙!A1" xr:uid="{9DFDE054-62EC-4B1B-AD39-E71DCABA40B8}"/>
+    <hyperlink ref="O106:P107" location="表紙!A1" display="表紙!A1" xr:uid="{B3233ABC-7BB0-43EB-A0C7-EBB2E74572E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8925,2168 +10093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083A375-731C-4555-B9FE-3246FCD7528B}">
-  <dimension ref="D2:AT41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
+  <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="127" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-    </row>
-    <row r="3" spans="4:46" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z3" s="65" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="6"/>
-    </row>
-    <row r="5" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="11"/>
-    </row>
-    <row r="6" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="11"/>
-    </row>
-    <row r="7" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="11"/>
-    </row>
-    <row r="8" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="11"/>
-    </row>
-    <row r="9" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="11"/>
-    </row>
-    <row r="10" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="11"/>
-    </row>
-    <row r="11" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="11"/>
-    </row>
-    <row r="12" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="11"/>
-    </row>
-    <row r="13" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="11"/>
-    </row>
-    <row r="14" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="11"/>
-    </row>
-    <row r="15" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="11"/>
-    </row>
-    <row r="16" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="11"/>
-    </row>
-    <row r="17" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="8"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="11"/>
-    </row>
-    <row r="18" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="8"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="11"/>
-    </row>
-    <row r="19" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="11"/>
-    </row>
-    <row r="20" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="11"/>
-    </row>
-    <row r="21" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D21" s="17"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="19"/>
-    </row>
-    <row r="22" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-    </row>
-    <row r="23" spans="4:46" ht="64.8" x14ac:dyDescent="0.45">
-      <c r="D23" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z23" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA23" s="64"/>
-    </row>
-    <row r="24" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-    </row>
-    <row r="25" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="6"/>
-    </row>
-    <row r="26" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="8"/>
-      <c r="AS26" s="8"/>
-      <c r="AT26" s="11"/>
-    </row>
-    <row r="27" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="11"/>
-    </row>
-    <row r="28" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="11"/>
-    </row>
-    <row r="29" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29" s="8"/>
-      <c r="AR29" s="8"/>
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="11"/>
-    </row>
-    <row r="30" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="11"/>
-    </row>
-    <row r="31" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="11"/>
-    </row>
-    <row r="32" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="8"/>
-      <c r="AR32" s="8"/>
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="11"/>
-    </row>
-    <row r="33" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="11"/>
-    </row>
-    <row r="34" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="8"/>
-      <c r="AR34" s="8"/>
-      <c r="AS34" s="8"/>
-      <c r="AT34" s="11"/>
-    </row>
-    <row r="35" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="11"/>
-    </row>
-    <row r="36" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="8"/>
-      <c r="AT36" s="11"/>
-    </row>
-    <row r="37" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="8"/>
-      <c r="AO37" s="8"/>
-      <c r="AP37" s="8"/>
-      <c r="AQ37" s="8"/>
-      <c r="AR37" s="8"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="11"/>
-    </row>
-    <row r="38" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="8"/>
-      <c r="AQ38" s="8"/>
-      <c r="AR38" s="8"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="11"/>
-    </row>
-    <row r="39" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
-      <c r="AP39" s="8"/>
-      <c r="AQ39" s="8"/>
-      <c r="AR39" s="8"/>
-      <c r="AS39" s="8"/>
-      <c r="AT39" s="11"/>
-    </row>
-    <row r="40" spans="4:46" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-      <c r="AR40" s="8"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="11"/>
-    </row>
-    <row r="41" spans="4:46" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D41" s="17"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="E3:L66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="5" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="G4">
-        <f>SUM(G7:G112)</f>
-        <v>49</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H7:H50)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I9" t="s">
-        <v>317</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" t="s">
-        <v>305</v>
-      </c>
-      <c r="J22" t="s">
-        <v>312</v>
-      </c>
-      <c r="K22" t="s">
-        <v>342</v>
-      </c>
-      <c r="L22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>320</v>
-      </c>
-      <c r="J51" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>200</v>
-      </c>
-      <c r="I53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>60</v>
-      </c>
-      <c r="I60" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F65" t="s">
-        <v>283</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>4</v>
-      </c>
-      <c r="I65" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F66" t="s">
-        <v>285</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>300</v>
-      </c>
-      <c r="I66" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBC606F-3ABE-49BF-8C3A-0BFB8AFC5014}">
-  <dimension ref="B4:S33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11098,6 +10109,22 @@
     <col min="20" max="51" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="161"/>
+      <c r="E1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="165"/>
+    </row>
+    <row r="2" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+    </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>182</v>
@@ -11480,44 +10507,67 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E1:F2" location="表紙!A1" display="表紙!A1" xr:uid="{5D281238-5C8F-496B-BA7D-396050D5F68E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
-  <dimension ref="B3:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.69921875" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="116" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>105</v>
       </c>
@@ -11531,12 +10581,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -11545,7 +10595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>109</v>
       </c>
@@ -11553,7 +10603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>110</v>
       </c>
@@ -11561,7 +10611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>111</v>
       </c>
@@ -11569,92 +10619,439 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
         <v>338</v>
       </c>
-      <c r="E12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E14" t="s">
-        <v>344</v>
-      </c>
       <c r="F14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F20" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{1E20F3BC-7ADB-4E16-B576-A20EA12E6043}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{C24719D3-3453-4810-88E0-94DAA8A5810F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{E7014B5A-4E75-48A3-B1F6-D5EDF42DFE76}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F2F1A-4628-4F4C-B38A-EE95ADDE660B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5F050A-E062-49C5-A771-32C14B255FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="3" activeTab="6" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="4" activeTab="7" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="382">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -4143,6 +4143,10 @@
     <rPh sb="19" eb="20">
       <t>ヒラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>playerModel.cpp・モデル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5093,48 +5097,174 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5157,132 +5287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7014,616 +7018,637 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="111"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="111"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="114"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="117"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="120"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="120"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="123"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="102" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="103"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="105"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="93"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="98" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="102" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="103"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="91"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="105"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="93"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="98" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="102" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="103"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="105"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="93"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="98" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="102" t="s">
+      <c r="E17" s="87"/>
+      <c r="F17" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="103"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="91"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="105"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="93"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="98" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="102" t="s">
+      <c r="E19" s="87"/>
+      <c r="F19" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="103"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="91"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="105"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="93"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="64" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="112" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="82" t="s">
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="64" t="s">
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="112" t="s">
         <v>370</v>
       </c>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="116"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="119"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="68" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="108" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="82" t="s">
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="64" t="s">
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="112" t="s">
         <v>371</v>
       </c>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="67"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="117"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="64" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="112" t="s">
         <v>367</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="78" t="s">
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="120" t="s">
         <v>362</v>
       </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="68" t="s">
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="108" t="s">
         <v>372</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="118"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="119"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="68" t="s">
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="108" t="s">
         <v>368</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="82" t="s">
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="64" t="s">
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="112" t="s">
         <v>373</v>
       </c>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="65"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="116"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="67"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="117"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="64" t="s">
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="78" t="s">
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="68" t="s">
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="69"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="118"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="67"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -7637,27 +7662,6 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8040,16 +8044,16 @@
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8080,16 +8084,16 @@
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8423,16 +8427,16 @@
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
@@ -9019,16 +9023,16 @@
         <v>375</v>
       </c>
       <c r="N9" s="129"/>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="116"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="130"/>
       <c r="N10" s="131"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="67"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="117"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9355,10 +9359,10 @@
         <v>375</v>
       </c>
       <c r="N56" s="129"/>
-      <c r="O56" s="64" t="s">
+      <c r="O56" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="P56" s="65"/>
+      <c r="P56" s="116"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -9367,8 +9371,8 @@
       </c>
       <c r="M57" s="130"/>
       <c r="N57" s="131"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="67"/>
+      <c r="O57" s="114"/>
+      <c r="P57" s="117"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -9886,16 +9890,16 @@
         <v>375</v>
       </c>
       <c r="N106" s="129"/>
-      <c r="O106" s="64" t="s">
+      <c r="O106" s="112" t="s">
         <v>376</v>
       </c>
-      <c r="P106" s="65"/>
+      <c r="P106" s="116"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="130"/>
       <c r="N107" s="131"/>
-      <c r="O107" s="66"/>
-      <c r="P107" s="67"/>
+      <c r="O107" s="114"/>
+      <c r="P107" s="117"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -10067,6 +10071,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -10074,11 +10083,6 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10525,7 +10529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6002F1-BD6E-49EE-8F3F-B232606D71F9}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -10739,8 +10743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10798,7 +10802,7 @@
         <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -10874,6 +10878,7 @@
     <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{C24719D3-3453-4810-88E0-94DAA8A5810F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5F050A-E062-49C5-A771-32C14B255FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B137BAA-2759-4B4C-B1C0-AD3899E9FCD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="4" activeTab="7" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="389">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -4148,6 +4148,36 @@
   <si>
     <t>playerModel.cpp・モデル</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モード選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!E5</t>
   </si>
 </sst>
 </file>
@@ -4904,7 +4934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5097,6 +5127,108 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5187,108 +5319,6 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5408,6 +5438,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7018,637 +7051,616 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="69"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="81"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="115"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="86" t="s">
+      <c r="C11" s="117"/>
+      <c r="D11" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="91"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="125"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="93"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="127"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="86" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="121"/>
+      <c r="F13" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="91"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="125"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="93"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="127"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="86" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="121"/>
+      <c r="F15" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="91"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="125"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="93"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="127"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="86" t="s">
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="90" t="s">
+      <c r="E17" s="121"/>
+      <c r="F17" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="125"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="93"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="127"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="86" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="90" t="s">
+      <c r="E19" s="121"/>
+      <c r="F19" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="91"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="125"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="93"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="127"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="112" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="124" t="s">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="112" t="s">
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="116"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="96"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="119"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="97"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="108" t="s">
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="124" t="s">
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="112" t="s">
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="116"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="117"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="74"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="112" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="120" t="s">
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="108" t="s">
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="118"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="119"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="97"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="108" t="s">
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="124" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="112" t="s">
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="116"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="96"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="117"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="74"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="112" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="120" t="s">
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="108" t="s">
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="118"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="73"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="117"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -7662,6 +7674,27 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7685,8 +7718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795CE98-BA02-46EB-8F73-B2633FEC1E3D}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8044,16 +8077,16 @@
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8084,16 +8117,16 @@
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8405,14 +8438,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
@@ -8422,23 +8456,23 @@
     <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="128" t="s">
         <v>375</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="117"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C2" s="70"/>
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>104</v>
       </c>
@@ -8446,235 +8480,284 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G4">
-        <f>SUM(G7:G112)</f>
-        <v>49</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H7:H50)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="E5" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="M5" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="U5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="168" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="N6" t="s">
         <v>95</v>
       </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>96</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="Q6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="R6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="S6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="U6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="149"/>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
         <v>309</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A8" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="E8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A10" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" s="149"/>
+      <c r="H10" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>310</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="I9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="I10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="I11" t="s">
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A11" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="H11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I17" t="s">
+      <c r="P11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I18" t="s">
+      <c r="X11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="P12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I19" t="s">
+      <c r="X12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
-        <v>298</v>
-      </c>
-      <c r="I22" t="s">
-        <v>299</v>
-      </c>
-      <c r="J22" t="s">
-        <v>306</v>
-      </c>
-      <c r="K22" t="s">
-        <v>336</v>
-      </c>
-      <c r="L22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I28" t="s">
+      <c r="X13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="I29" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X14" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8915,13 +8998,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="M5:S5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{93B85948-2234-4175-A6F6-3B639A837114}"/>
+    <hyperlink ref="C6" location="必要になるデータを置く場所!E5" display="必要になるデータを置く場所!E5" xr:uid="{7D875BE3-FBEA-4D26-B9D0-AD76DD76A47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8932,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71617826-53BB-4ED2-8C21-F7E5903BC7BE}">
   <dimension ref="B2:P123"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106:P107"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H80" sqref="H79:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9023,16 +9115,16 @@
         <v>375</v>
       </c>
       <c r="N9" s="129"/>
-      <c r="O9" s="112" t="s">
+      <c r="O9" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="P9" s="116"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="130"/>
       <c r="N10" s="131"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="117"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="74"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9359,10 +9451,10 @@
         <v>375</v>
       </c>
       <c r="N56" s="129"/>
-      <c r="O56" s="112" t="s">
+      <c r="O56" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="P56" s="116"/>
+      <c r="P56" s="96"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -9371,8 +9463,8 @@
       </c>
       <c r="M57" s="130"/>
       <c r="N57" s="131"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="117"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="74"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -9890,16 +9982,16 @@
         <v>375</v>
       </c>
       <c r="N106" s="129"/>
-      <c r="O106" s="112" t="s">
+      <c r="O106" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="P106" s="116"/>
+      <c r="P106" s="96"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="130"/>
       <c r="N107" s="131"/>
-      <c r="O107" s="114"/>
-      <c r="P107" s="117"/>
+      <c r="O107" s="70"/>
+      <c r="P107" s="74"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -10071,11 +10163,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -10083,6 +10170,11 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10101,7 +10193,7 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10743,7 +10835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE10F0-891A-4FAF-B8BD-8272BDE99EBB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -10887,7 +10979,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B137BAA-2759-4B4C-B1C0-AD3899E9FCD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3819D5D-938F-4C99-8479-B6356733179D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="8" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="422">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -1250,25 +1250,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明を4種類ほど準備し順番に表示する</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4179,12 +4160,344 @@
   <si>
     <t>必要になるデータを置く場所!E5</t>
   </si>
+  <si>
+    <t>必要になるデータを置く場所!M5</t>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!U5</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!AC5</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!AK5</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!AS5</t>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A5</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A13</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A21</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A29</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A37</t>
+  </si>
+  <si>
+    <t>必要になるデータを置く場所!A45</t>
+  </si>
+  <si>
+    <t>テクスチャのテキスト内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lスティックでプレイヤー移動
+Rスティックで視点移動</t>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rボタン入力でダッシュ</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵が近くにいるとコントローラーが震える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スティックを僅かに倒して忍び足</t>
+    <rPh sb="6" eb="7">
+      <t>ワズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aボタン入力で鍵を拾う</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドアの前でAボタン入力でドアを開く</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>falseの時にボックスのみ表示</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trueになったとき左から右にポリゴンを
+広げてチェックを重ねる</t>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不透明度を紙の背景とリンクするようにする</t>
+    <rPh sb="0" eb="3">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CheckboxUI.cpp・チェックボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>paperBG.cpp・紙の背景</t>
+    <rPh sb="12" eb="13">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー画面の4ぶんの1を隠すような表示をする</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの数の分準備する</t>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの数の分準備する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作時に不透明を下げる</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが操作してない間は不透明を上げる</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Set処理とfalseからtrueにする関数を準備する</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>図１</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>右の「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>図１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」の内容の文字のテクスチャを準備する</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明を6種類ほど準備し順番に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4317,6 +4630,23 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4457,7 +4787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -4925,6 +5255,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4934,7 +5353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5127,6 +5546,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5367,6 +5807,27 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5382,9 +5843,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5438,9 +5896,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7051,613 +7506,613 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
+    </row>
+    <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+    </row>
+    <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
+    </row>
+    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
+    </row>
+    <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119"/>
+    </row>
+    <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
+    </row>
+    <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="100"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="103"/>
-    </row>
-    <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-    </row>
-    <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="106"/>
-    </row>
-    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
-    </row>
-    <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
-    </row>
-    <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="115"/>
-    </row>
-    <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="116" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="120" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="132"/>
+    </row>
+    <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="134"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="124" t="s">
+      <c r="E13" s="128"/>
+      <c r="F13" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="132"/>
+    </row>
+    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="134"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="132"/>
+    </row>
+    <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="134"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="125"/>
-    </row>
-    <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="127"/>
-    </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="124" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="125"/>
-    </row>
-    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="127"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="124" t="s">
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="132"/>
+    </row>
+    <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="134"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="128"/>
+      <c r="F19" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="125"/>
-    </row>
-    <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="127"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="124" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="125"/>
-    </row>
-    <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="127"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="124" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="125"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="132"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="127"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
+    </row>
+    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+    </row>
+    <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-    </row>
-    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-    </row>
-    <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="64" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="103"/>
+    </row>
+    <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="104"/>
+    </row>
+    <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="68" t="s">
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="79" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="68" t="s">
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="96"/>
-    </row>
-    <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="97"/>
-    </row>
-    <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="89" t="s">
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="103"/>
+    </row>
+    <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="81"/>
+    </row>
+    <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="72" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="79" t="s">
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="68" t="s">
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="79" t="s">
         <v>371</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="96"/>
-    </row>
-    <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="64" t="s">
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
+    </row>
+    <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="104"/>
+    </row>
+    <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="68" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="75" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="72" t="s">
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="73"/>
-    </row>
-    <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="97"/>
-    </row>
-    <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="89" t="s">
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="103"/>
+    </row>
+    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="81"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B33" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="72" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="79" t="s">
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="68" t="s">
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="96"/>
-    </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="73"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="74"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -7732,27 +8187,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="165"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -7764,13 +8219,13 @@
         <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -7778,133 +8233,133 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7939,31 +8394,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="165"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -7971,10 +8426,10 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -7982,70 +8437,70 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -8073,20 +8528,20 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="96"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8113,310 +8568,310 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="96"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
+      <c r="B4" s="145" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="132" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="134"/>
+      <c r="B6" s="139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="134"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="134"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="134"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="134"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="132"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="134"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="141"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="132"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="134"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="141"/>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="137"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="144"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="140"/>
+      <c r="B15" s="145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="143"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="150"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="134"/>
+      <c r="B17" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="141"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="134"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="134"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="141"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="141"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="132"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="134"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="141"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="141"/>
     </row>
     <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="135"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8438,78 +8893,164 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
     <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="33" max="33" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" customWidth="1"/>
+    <col min="38" max="38" width="8.796875" customWidth="1"/>
+    <col min="40" max="40" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A1" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="96"/>
-    </row>
-    <row r="2" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="74"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="E5" s="149" t="s">
+      <c r="D1" s="103"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="E3" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC3" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK3" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS3" s="64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E5" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="M5" s="149" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="M5" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="U5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A6" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="168" t="s">
-        <v>388</v>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="U5" s="151" t="s">
+        <v>297</v>
+      </c>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AC5" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AK5" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AS5" s="151" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT5" s="151"/>
+      <c r="AU5" s="151"/>
+      <c r="AV5" s="151"/>
+      <c r="AW5" s="151"/>
+      <c r="AX5" s="151"/>
+      <c r="AY5" s="151"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A6" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="66" t="s">
+        <v>387</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
@@ -8574,14 +9115,80 @@
       <c r="AA6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A7" s="149" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" s="149"/>
+      <c r="AC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A7" s="154" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="155"/>
+      <c r="C7" s="67" t="s">
+        <v>388</v>
+      </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -8599,7 +9206,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M7" t="s">
         <v>87</v>
@@ -8620,31 +9227,67 @@
         <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA7" t="s">
         <v>306</v>
       </c>
-      <c r="Z7" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A8" s="149" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="149"/>
+      <c r="AC7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A8" s="154" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="155"/>
+      <c r="C8" s="67" t="s">
+        <v>390</v>
+      </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
         <v>82</v>
@@ -8665,16 +9308,49 @@
         <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A9" s="149" t="s">
-        <v>385</v>
-      </c>
-      <c r="B9" s="149"/>
+        <v>299</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A9" s="154" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="155"/>
+      <c r="C9" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
         <v>83</v>
@@ -8695,16 +9371,40 @@
         <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" s="149" t="s">
-        <v>386</v>
-      </c>
-      <c r="B10" s="149"/>
+        <v>300</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>200</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A10" s="154" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="155"/>
+      <c r="C10" s="67" t="s">
+        <v>392</v>
+      </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -8722,298 +9422,257 @@
         <v>94</v>
       </c>
       <c r="X10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A11" s="149" t="s">
-        <v>387</v>
-      </c>
-      <c r="B11" s="149"/>
+        <v>301</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="156" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="157"/>
+      <c r="C11" s="65" t="s">
+        <v>393</v>
+      </c>
       <c r="H11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="X11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
       <c r="P12" t="s">
         <v>8</v>
       </c>
       <c r="X12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A13" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="151"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
       <c r="X13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>8</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="A14" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="151"/>
       <c r="X14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51">
+        <v>329</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="AC15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
+      <c r="AC16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>30</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
         <v>4</v>
       </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>314</v>
-      </c>
-      <c r="J51" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52">
+      <c r="AF21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="29:32" x14ac:dyDescent="0.45">
+      <c r="AC22" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD22">
         <v>1</v>
       </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>200</v>
-      </c>
-      <c r="I53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F56" t="s">
-        <v>280</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>60</v>
-      </c>
-      <c r="I60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F65" t="s">
-        <v>279</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>4</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="AE22">
+        <v>300</v>
+      </c>
+      <c r="AF22" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F66" t="s">
-        <v>281</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>300</v>
-      </c>
-      <c r="I66" t="s">
-        <v>329</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="U5:AA5"/>
+    <mergeCell ref="AC5:AI5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="C1:D2" location="表紙!A1" display="表紙!A1" xr:uid="{93B85948-2234-4175-A6F6-3B639A837114}"/>
     <hyperlink ref="C6" location="必要になるデータを置く場所!E5" display="必要になるデータを置く場所!E5" xr:uid="{7D875BE3-FBEA-4D26-B9D0-AD76DD76A47C}"/>
+    <hyperlink ref="C7" location="必要になるデータを置く場所!M5" display="必要になるデータを置く場所!M5" xr:uid="{CB0E2296-F977-42E7-B8D7-8AE5F5CC9410}"/>
+    <hyperlink ref="C8" location="必要になるデータを置く場所!U5" display="必要になるデータを置く場所!U5" xr:uid="{97EFC40F-D20E-4E35-8A5F-D1C1E99D9996}"/>
+    <hyperlink ref="C9" location="必要になるデータを置く場所!AC5" display="必要になるデータを置く場所!AC5" xr:uid="{785A8BC2-EB66-4354-BD65-8EFCC0D32B2D}"/>
+    <hyperlink ref="C10" location="必要になるデータを置く場所!AK5" display="必要になるデータを置く場所!AK5" xr:uid="{2E3348ED-373B-4B74-AD8B-7CD4C6150311}"/>
+    <hyperlink ref="C11" location="必要になるデータを置く場所!AS5" display="必要になるデータを置く場所!AS5" xr:uid="{CA52174A-616F-432D-B91B-B25DE95B796D}"/>
+    <hyperlink ref="E3" location="必要になるデータを置く場所!A5" display="必要になるデータを置く場所!A5" xr:uid="{9EBD9BB8-F6E0-415F-94B6-F31F517E4C5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9044,34 +9703,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -9103,28 +9762,28 @@
         <v>74</v>
       </c>
       <c r="M7" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>203</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="M9" s="128" t="s">
+      <c r="M9" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="N9" s="136"/>
+      <c r="O9" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="P9" s="96"/>
+      <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M10" s="130"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="74"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="81"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9132,7 +9791,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -9140,7 +9799,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="149"/>
+      <c r="B15" s="151"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -9275,7 +9934,7 @@
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -9291,72 +9950,72 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="H44" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L44" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F45" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="46"/>
       <c r="M45" s="8"/>
       <c r="N45" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H47" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -9364,62 +10023,62 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H48" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
       <c r="H49" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="46"/>
       <c r="K49" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L49" s="46"/>
       <c r="M49" s="8"/>
       <c r="N49" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
       <c r="H50" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9447,24 +10106,24 @@
       <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="128" t="s">
+      <c r="M56" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="N56" s="136"/>
+      <c r="O56" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="N56" s="129"/>
-      <c r="O56" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="P56" s="96"/>
+      <c r="P56" s="103"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="130"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="74"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="138"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="81"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -9819,7 +10478,7 @@
     </row>
     <row r="88" spans="4:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D88" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>62</v>
@@ -9828,7 +10487,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9847,7 +10506,7 @@
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.45">
@@ -9940,10 +10599,10 @@
     </row>
     <row r="98" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" t="s">
         <v>215</v>
-      </c>
-      <c r="F98" t="s">
-        <v>216</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="58" t="s">
@@ -9957,7 +10616,7 @@
     </row>
     <row r="99" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8"/>
@@ -9978,24 +10637,24 @@
     </row>
     <row r="105" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="106" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="M106" s="128" t="s">
+      <c r="M106" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="N106" s="136"/>
+      <c r="O106" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="N106" s="129"/>
-      <c r="O106" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="P106" s="96"/>
+      <c r="P106" s="103"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M107" s="130"/>
-      <c r="N107" s="131"/>
-      <c r="O107" s="70"/>
-      <c r="P107" s="74"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="138"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="81"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
@@ -10008,29 +10667,29 @@
       <c r="F112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="I112" s="151"/>
-      <c r="J112" s="151"/>
-      <c r="K112" s="151"/>
-      <c r="L112" s="151"/>
-      <c r="M112" s="154" t="s">
-        <v>238</v>
-      </c>
-      <c r="N112" s="155"/>
+      <c r="H112" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="I112" s="164"/>
+      <c r="J112" s="164"/>
+      <c r="K112" s="164"/>
+      <c r="L112" s="164"/>
+      <c r="M112" s="167" t="s">
+        <v>237</v>
+      </c>
+      <c r="N112" s="168"/>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="152"/>
-      <c r="I113" s="153"/>
-      <c r="J113" s="153"/>
-      <c r="K113" s="153"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="156"/>
-      <c r="N113" s="157"/>
+      <c r="H113" s="165"/>
+      <c r="I113" s="166"/>
+      <c r="J113" s="166"/>
+      <c r="K113" s="166"/>
+      <c r="L113" s="166"/>
+      <c r="M113" s="169"/>
+      <c r="N113" s="170"/>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
@@ -10039,27 +10698,27 @@
       <c r="F114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="152"/>
-      <c r="I114" s="153"/>
-      <c r="J114" s="153"/>
-      <c r="K114" s="153"/>
-      <c r="L114" s="153"/>
-      <c r="M114" s="156"/>
-      <c r="N114" s="157"/>
+      <c r="H114" s="165"/>
+      <c r="I114" s="166"/>
+      <c r="J114" s="166"/>
+      <c r="K114" s="166"/>
+      <c r="L114" s="166"/>
+      <c r="M114" s="169"/>
+      <c r="N114" s="170"/>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="I115" s="159"/>
-      <c r="J115" s="159"/>
-      <c r="K115" s="159"/>
-      <c r="L115" s="159"/>
-      <c r="M115" s="156"/>
-      <c r="N115" s="157"/>
+      <c r="H115" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="I115" s="172"/>
+      <c r="J115" s="172"/>
+      <c r="K115" s="172"/>
+      <c r="L115" s="172"/>
+      <c r="M115" s="169"/>
+      <c r="N115" s="170"/>
     </row>
     <row r="116" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F116" s="2" t="s">
@@ -10078,7 +10737,7 @@
         <v>25</v>
       </c>
       <c r="G117" s="63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="8"/>
@@ -10090,10 +10749,10 @@
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="H118" s="59"/>
       <c r="I118" s="8"/>
@@ -10105,7 +10764,7 @@
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H119" s="59"/>
       <c r="I119" s="8"/>
@@ -10117,48 +10776,48 @@
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F120" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H120" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="I120" s="145"/>
-      <c r="J120" s="145"/>
-      <c r="K120" s="145"/>
-      <c r="L120" s="145"/>
+        <v>235</v>
+      </c>
+      <c r="H120" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I120" s="159"/>
+      <c r="J120" s="159"/>
+      <c r="K120" s="159"/>
+      <c r="L120" s="159"/>
       <c r="M120" s="8"/>
       <c r="N120" s="60"/>
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F121" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H121" s="144"/>
-      <c r="I121" s="145"/>
-      <c r="J121" s="145"/>
-      <c r="K121" s="145"/>
-      <c r="L121" s="145"/>
+        <v>236</v>
+      </c>
+      <c r="H121" s="158"/>
+      <c r="I121" s="159"/>
+      <c r="J121" s="159"/>
+      <c r="K121" s="159"/>
+      <c r="L121" s="159"/>
       <c r="M121" s="8"/>
       <c r="N121" s="60"/>
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F122" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H122" s="146"/>
-      <c r="I122" s="147"/>
-      <c r="J122" s="147"/>
-      <c r="K122" s="147"/>
-      <c r="L122" s="147"/>
+        <v>237</v>
+      </c>
+      <c r="H122" s="160"/>
+      <c r="I122" s="161"/>
+      <c r="J122" s="161"/>
+      <c r="K122" s="161"/>
+      <c r="L122" s="161"/>
       <c r="M122" s="61"/>
       <c r="N122" s="62"/>
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F123" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N123" s="63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -10206,48 +10865,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="174"/>
+      <c r="E1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="165"/>
+      <c r="F1" s="178"/>
     </row>
     <row r="2" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>15</v>
@@ -10265,15 +10924,15 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -10282,12 +10941,12 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>15</v>
@@ -10303,15 +10962,15 @@
         <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>15</v>
@@ -10321,15 +10980,15 @@
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
         <v>169</v>
-      </c>
-      <c r="C11" t="s">
-        <v>170</v>
       </c>
       <c r="I11" s="44" t="s">
         <v>15</v>
@@ -10341,69 +11000,69 @@
         <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="40"/>
       <c r="S13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2"/>
       <c r="S14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="8"/>
       <c r="G17" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>15</v>
@@ -10421,16 +11080,16 @@
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="8"/>
       <c r="G19" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -10439,12 +11098,12 @@
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>15</v>
@@ -10460,12 +11119,12 @@
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21" s="44" t="s">
         <v>15</v>
@@ -10475,12 +11134,12 @@
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -10494,49 +11153,49 @@
         <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G28" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
@@ -10558,7 +11217,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G30" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -10636,27 +11295,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="165"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -10668,13 +11327,13 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
         <v>145</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -10682,7 +11341,7 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -10722,98 +11381,98 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" t="s">
         <v>340</v>
-      </c>
-      <c r="F12" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -10850,27 +11509,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="165"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -10885,16 +11544,16 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
         <v>142</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>143</v>
       </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -10951,7 +11610,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -10976,10 +11635,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10988,155 +11647,245 @@
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="165"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="149" t="s">
+      <c r="D1" s="178"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
         <v>139</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" t="s">
         <v>134</v>
       </c>
       <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="17">
+        <v>6</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="3" t="s">
-        <v>138</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
         <v>165</v>
       </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>166</v>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3819D5D-938F-4C99-8479-B6356733179D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C1FB2-F83B-4BAD-A863-EBBAD63FF651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="8" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="421">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -4301,23 +4301,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>trueになったとき左から右にポリゴンを
-広げてチェックを重ねる</t>
-    <rPh sb="10" eb="11">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>不透明度を紙の背景とリンクするようにする</t>
     <rPh sb="0" eb="3">
       <t>フトウメイ</t>
@@ -4406,19 +4389,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Set処理とfalseからtrueにする関数を準備する</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4489,6 +4459,25 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trueになったとき透明なポリゴンを左から右に動かし、チェックを重ねる</t>
+    <rPh sb="10" eb="12">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5567,6 +5556,126 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5579,6 +5688,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5591,13 +5712,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5624,141 +5748,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5807,9 +5796,6 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5820,6 +5806,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7506,616 +7495,637 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="119"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="122"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="127" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="131" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="132"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="134"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="127" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="131" t="s">
+      <c r="E13" s="94"/>
+      <c r="F13" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="132"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="98"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="134"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="100"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="127" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="131" t="s">
+      <c r="E15" s="94"/>
+      <c r="F15" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="132"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="134"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="127" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="132"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="98"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="134"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="127" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="131" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="132"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="125"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="134"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="100"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="75" t="s">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="119" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="86" t="s">
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="75" t="s">
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="103"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="123"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="104"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="126"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="79" t="s">
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="86" t="s">
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="75" t="s">
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="103"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="123"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="81"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="124"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="111" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="75" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="119" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="82" t="s">
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="127" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="79" t="s">
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="125"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="104"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="126"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="107" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="79" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="86" t="s">
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="131" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="75" t="s">
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="103"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="123"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="81"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="124"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="111" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="75" t="s">
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="82" t="s">
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="127" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="79" t="s">
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="80"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="125"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="81"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -8129,27 +8139,6 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8203,11 +8192,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8410,11 +8399,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8532,16 +8521,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8572,16 +8561,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8950,16 +8939,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="E3" s="64" t="s">
@@ -8989,66 +8978,66 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="M5" s="151" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="M5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="U5" s="151" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="U5" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AC5" s="151" t="s">
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AC5" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AK5" s="151" t="s">
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AK5" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="AL5" s="151"/>
-      <c r="AM5" s="151"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AS5" s="151" t="s">
+      <c r="AL5" s="155"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="155"/>
+      <c r="AP5" s="155"/>
+      <c r="AQ5" s="155"/>
+      <c r="AS5" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="AT5" s="151"/>
-      <c r="AU5" s="151"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="151"/>
-      <c r="AX5" s="151"/>
-      <c r="AY5" s="151"/>
+      <c r="AT5" s="155"/>
+      <c r="AU5" s="155"/>
+      <c r="AV5" s="155"/>
+      <c r="AW5" s="155"/>
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="151" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="153"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="66" t="s">
         <v>387</v>
       </c>
@@ -9180,10 +9169,10 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="153" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="155"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="67" t="s">
         <v>388</v>
       </c>
@@ -9270,10 +9259,10 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="153" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="155"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="67" t="s">
         <v>390</v>
       </c>
@@ -9333,10 +9322,10 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="67" t="s">
         <v>391</v>
       </c>
@@ -9396,10 +9385,10 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="155"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="67" t="s">
         <v>392</v>
       </c>
@@ -9488,10 +9477,10 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
@@ -9512,10 +9501,10 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="151"/>
+      <c r="B14" s="155"/>
       <c r="X14" t="s">
         <v>329</v>
       </c>
@@ -9646,11 +9635,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="U5:AA5"/>
     <mergeCell ref="AC5:AI5"/>
@@ -9662,6 +9646,11 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9706,31 +9695,31 @@
       <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -9774,16 +9763,16 @@
         <v>374</v>
       </c>
       <c r="N9" s="136"/>
-      <c r="O9" s="75" t="s">
+      <c r="O9" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P9" s="103"/>
+      <c r="P9" s="123"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="137"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="81"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="124"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9791,7 +9780,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -9799,7 +9788,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -10110,10 +10099,10 @@
         <v>374</v>
       </c>
       <c r="N56" s="136"/>
-      <c r="O56" s="75" t="s">
+      <c r="O56" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P56" s="103"/>
+      <c r="P56" s="123"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -10122,8 +10111,8 @@
       </c>
       <c r="M57" s="137"/>
       <c r="N57" s="138"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="81"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="124"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -10641,16 +10630,16 @@
         <v>374</v>
       </c>
       <c r="N106" s="136"/>
-      <c r="O106" s="75" t="s">
+      <c r="O106" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P106" s="103"/>
+      <c r="P106" s="123"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="137"/>
       <c r="N107" s="138"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="81"/>
+      <c r="O107" s="121"/>
+      <c r="P107" s="124"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -10822,6 +10811,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -10829,11 +10823,6 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11311,11 +11300,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11525,11 +11514,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11637,8 +11626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11669,11 +11658,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
@@ -11694,7 +11683,7 @@
         <v>140</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>401</v>
@@ -11705,7 +11694,7 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
         <v>149</v>
@@ -11792,7 +11781,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E12" t="s">
         <v>153</v>
@@ -11806,7 +11795,7 @@
         <v>156</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -11828,7 +11817,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
@@ -11839,7 +11828,7 @@
         <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
@@ -11847,16 +11836,13 @@
         <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>162</v>
       </c>
-      <c r="F20" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
@@ -11865,27 +11851,27 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C1FB2-F83B-4BAD-A863-EBBAD63FF651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979801CF-B137-4ED2-A9FD-63EFE82CD60A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -5556,6 +5556,108 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5646,108 +5748,6 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5796,25 +5796,25 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7495,637 +7495,616 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="82"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="97" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="98"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="132"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="100"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="134"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="93" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="97" t="s">
+      <c r="E13" s="128"/>
+      <c r="F13" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="98"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="132"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="100"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="134"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93" t="s">
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="97" t="s">
+      <c r="E15" s="128"/>
+      <c r="F15" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="98"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="132"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="100"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="134"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="97" t="s">
+      <c r="E17" s="128"/>
+      <c r="F17" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="98"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="132"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="100"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="134"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="97" t="s">
+      <c r="E19" s="128"/>
+      <c r="F19" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="98"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="132"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="100"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="119" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="131" t="s">
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="119" t="s">
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="123"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="103"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="126"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="104"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="115" t="s">
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="131" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="119" t="s">
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="123"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="103"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="124"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="119" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="127" t="s">
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="115" t="s">
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="79" t="s">
         <v>371</v>
       </c>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="125"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="126"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="115" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="131" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="119" t="s">
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="123"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="103"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="124"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="119" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="127" t="s">
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="115" t="s">
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="125"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="124"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -8139,6 +8118,27 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8192,11 +8192,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8399,11 +8399,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8521,16 +8521,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8561,16 +8561,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8939,16 +8939,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="E3" s="64" t="s">
@@ -8978,66 +8978,66 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="M5" s="155" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="M5" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="U5" s="155" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="U5" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AC5" s="155" t="s">
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AC5" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AK5" s="155" t="s">
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AK5" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="AL5" s="155"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="155"/>
-      <c r="AO5" s="155"/>
-      <c r="AP5" s="155"/>
-      <c r="AQ5" s="155"/>
-      <c r="AS5" s="155" t="s">
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AS5" s="151" t="s">
         <v>389</v>
       </c>
-      <c r="AT5" s="155"/>
-      <c r="AU5" s="155"/>
-      <c r="AV5" s="155"/>
-      <c r="AW5" s="155"/>
-      <c r="AX5" s="155"/>
-      <c r="AY5" s="155"/>
+      <c r="AT5" s="151"/>
+      <c r="AU5" s="151"/>
+      <c r="AV5" s="151"/>
+      <c r="AW5" s="151"/>
+      <c r="AX5" s="151"/>
+      <c r="AY5" s="151"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="152"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="66" t="s">
         <v>387</v>
       </c>
@@ -9169,10 +9169,10 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="152" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="154"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="67" t="s">
         <v>388</v>
       </c>
@@ -9259,10 +9259,10 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="152" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="67" t="s">
         <v>390</v>
       </c>
@@ -9322,10 +9322,10 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="152" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="154"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="67" t="s">
         <v>391</v>
       </c>
@@ -9385,10 +9385,10 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="154"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="67" t="s">
         <v>392</v>
       </c>
@@ -9427,10 +9427,10 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="154" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="157"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="65" t="s">
         <v>393</v>
       </c>
@@ -9477,10 +9477,10 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="151"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
@@ -9501,10 +9501,10 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="151"/>
       <c r="X14" t="s">
         <v>329</v>
       </c>
@@ -9635,6 +9635,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="U5:AA5"/>
     <mergeCell ref="AC5:AI5"/>
@@ -9646,11 +9651,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9695,31 +9695,31 @@
       <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -9763,16 +9763,16 @@
         <v>374</v>
       </c>
       <c r="N9" s="136"/>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P9" s="123"/>
+      <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="137"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="124"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="81"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9780,7 +9780,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -9788,7 +9788,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="155"/>
+      <c r="B15" s="151"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -10099,10 +10099,10 @@
         <v>374</v>
       </c>
       <c r="N56" s="136"/>
-      <c r="O56" s="119" t="s">
+      <c r="O56" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P56" s="123"/>
+      <c r="P56" s="103"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -10111,8 +10111,8 @@
       </c>
       <c r="M57" s="137"/>
       <c r="N57" s="138"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="124"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="81"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -10630,16 +10630,16 @@
         <v>374</v>
       </c>
       <c r="N106" s="136"/>
-      <c r="O106" s="119" t="s">
+      <c r="O106" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P106" s="123"/>
+      <c r="P106" s="103"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="137"/>
       <c r="N107" s="138"/>
-      <c r="O107" s="121"/>
-      <c r="P107" s="124"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="81"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -10811,11 +10811,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -10823,6 +10818,11 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11300,11 +11300,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11514,11 +11514,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11658,11 +11658,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979801CF-B137-4ED2-A9FD-63EFE82CD60A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908BB02-2D91-4BD7-9A2D-86974C845CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -5556,6 +5556,126 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5568,6 +5688,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5580,13 +5712,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5613,141 +5748,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5796,25 +5796,25 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7188,6 +7188,2615 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2859741</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C942A1F-9EF2-4E9C-AFE9-5078C8FDEE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814918" y="7485531"/>
+          <a:ext cx="6302188" cy="3146610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA8DA52-F8DD-4419-8306-A7CB39186171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882588" y="7458637"/>
+          <a:ext cx="878541" cy="869576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26891</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8295BBBF-54CC-4634-BEA3-1E2F0D1AEC10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814915" y="7449674"/>
+          <a:ext cx="6866967" cy="3200397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>215156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2545977</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D028079A-50CD-4254-9CCF-0BCF8339A210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218329" y="7655862"/>
+          <a:ext cx="5585013" cy="3003174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2034988</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08CC93C-AF79-4027-9B98-06AAE739CD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3684495" y="7951698"/>
+          <a:ext cx="4607858" cy="1398491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明用テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>986120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>206195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4D83CC-0CF1-440B-87F2-CBF45E5B8E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774144" y="9977724"/>
+          <a:ext cx="385480" cy="376512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>842679</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1541926</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BF9548-AB89-4AD7-B6D9-F5D117BCB746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961085">
+          <a:off x="3630703" y="9654986"/>
+          <a:ext cx="699247" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2232214</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>206195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2617694</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9C5CB6-DBE9-4CE1-8FFD-046EC8C2EF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020238" y="9977724"/>
+          <a:ext cx="385480" cy="376512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80685</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89656C7E-6D74-48DD-ABFB-430B14D69104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6338050" y="10013583"/>
+          <a:ext cx="385480" cy="376512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1577791</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1963271</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3043C269-D50A-4E73-B15C-98B74ABB8F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7835156" y="10022547"/>
+          <a:ext cx="385480" cy="376512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2097738</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2796985</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E97310-7DAA-4457-9B70-F18411C2FA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961085">
+          <a:off x="4885762" y="9654985"/>
+          <a:ext cx="699247" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1443315</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2142562</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1604A601-2A53-49E7-8A97-B51250141B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961085">
+          <a:off x="7700680" y="9663950"/>
+          <a:ext cx="699247" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206189</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1084730</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E89931F-CF22-4AD7-911B-216CFB8771C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1900518" y="11474825"/>
+          <a:ext cx="878541" cy="869576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3361764</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562F828A-9A86-4E27-B972-7E33514DCB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814918" y="11447931"/>
+          <a:ext cx="3334870" cy="1694328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3397623</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97157D49-A934-475F-9751-826C69259730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185647" y="11447931"/>
+          <a:ext cx="3334870" cy="1694328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>143437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3361763</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949C143A-F3EE-472A-9E90-479DBB277AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814917" y="13178119"/>
+          <a:ext cx="3334870" cy="1694328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3379693</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C69C7DA-A563-4CFA-895B-8C1D247B836D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6167717" y="13160189"/>
+          <a:ext cx="3334870" cy="1694328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3281082</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFE0B45-54BD-4FD9-9FC5-56E5ED0AE84E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886636" y="12505764"/>
+          <a:ext cx="3182470" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:alphaModFix amt="50000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9323D95-56D5-4790-93AC-635ED2875C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257365" y="12460940"/>
+          <a:ext cx="3182470" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3307976</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ED27C9-DF56-4241-AF57-348232DF0AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913530" y="14209058"/>
+          <a:ext cx="3182470" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:alphaModFix amt="50000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE7DD8F-488A-4A13-9983-9EDF2929F267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293224" y="14182164"/>
+          <a:ext cx="3182470" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:alphaModFix amt="50000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2958356</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>89652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3164541</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB54D3A9-7E26-4293-854B-C023BE5B98C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5746380" y="12891252"/>
+          <a:ext cx="206185" cy="206183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2904568</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8468B3-7B5C-49CC-BFE6-2580E8ACB980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9161933" y="12837464"/>
+          <a:ext cx="206185" cy="206183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3048004</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>170335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3254189</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF363102-F602-40CE-A703-D29E2F7881B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836028" y="14603511"/>
+          <a:ext cx="206185" cy="206183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2940428</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>125511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA368EBF-0205-45E6-9D6A-3241BD425F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9197793" y="14558687"/>
+          <a:ext cx="206185" cy="206183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2776521</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225416</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>219392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4216E5-B10B-4BE3-BD90-9C01F12AE24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961085">
+          <a:off x="9033886" y="12615324"/>
+          <a:ext cx="416212" cy="405668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2937886</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3354098</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>102852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162E166F-98B3-451C-AE74-C1FBD7FB7DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961085">
+          <a:off x="5725910" y="14363443"/>
+          <a:ext cx="416212" cy="405668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2554940</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C64F963-C55A-4E64-9368-1767B03CE012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594847" y="12649203"/>
+          <a:ext cx="1748117" cy="358585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明用テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>726141</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>35861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2474258</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A756DB31-C29D-42E8-A3C2-E544F1021D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6983506" y="12604379"/>
+          <a:ext cx="1748117" cy="358585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明用テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833718</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>170332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2581835</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB68FC27-2872-4A48-A904-F32EFE3FDD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3621742" y="14370426"/>
+          <a:ext cx="1748117" cy="358585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明用テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>860612</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2608729</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9957DBEC-58E4-40BD-8D53-C050DD8A83A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117977" y="14361461"/>
+          <a:ext cx="1748117" cy="358585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明用テキスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313767</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8546B146-A124-420F-AD99-CDD785662299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9825318" y="7512424"/>
+          <a:ext cx="2886637" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明を読んだ人はボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313767</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E493ECF-B629-4E46-AADC-EC7691CCBBE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9825318" y="8229601"/>
+          <a:ext cx="2886637" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押したらチェックを入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618566</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331697</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3AF923-587E-40B6-A0D8-5FFADCBDA25F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9843248" y="8964707"/>
+          <a:ext cx="2886637" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人数分のチェックでプレイ画面へ進む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259978</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80E92AC-0A80-4CF2-BFCD-592F427BF19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9771529" y="11430001"/>
+          <a:ext cx="2886637" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明テキストの内容達成でチェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555813</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268944</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE77136-2C1E-448D-9F45-E3CAF4F55197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9780495" y="12057530"/>
+          <a:ext cx="2886637" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人数分のチェックで説明画面へ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7495,616 +10104,637 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="119"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="122"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="127" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="131" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="132"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="134"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="127" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="131" t="s">
+      <c r="E13" s="94"/>
+      <c r="F13" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="132"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="98"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="134"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="100"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="127" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="131" t="s">
+      <c r="E15" s="94"/>
+      <c r="F15" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="132"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="134"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="127" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="132"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="98"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="134"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="127" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="131" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="132"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="125"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="134"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="100"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="75" t="s">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="119" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="86" t="s">
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="75" t="s">
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="103"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="123"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="104"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="126"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="79" t="s">
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="86" t="s">
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="75" t="s">
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="103"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="123"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="81"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="124"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="111" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="75" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="119" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="82" t="s">
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="127" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="79" t="s">
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="125"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="104"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="126"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="107" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="79" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="86" t="s">
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="131" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="75" t="s">
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="103"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="123"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="81"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="124"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="111" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="75" t="s">
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="82" t="s">
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="127" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="79" t="s">
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="80"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="125"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="81"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -8118,27 +10748,6 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8192,11 +10801,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8399,11 +11008,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -8521,16 +11130,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8561,16 +11170,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8939,16 +11548,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="E3" s="64" t="s">
@@ -8978,66 +11587,66 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="M5" s="151" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="M5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="U5" s="151" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="U5" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AC5" s="151" t="s">
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AC5" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AK5" s="151" t="s">
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AK5" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="AL5" s="151"/>
-      <c r="AM5" s="151"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AS5" s="151" t="s">
+      <c r="AL5" s="155"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="155"/>
+      <c r="AP5" s="155"/>
+      <c r="AQ5" s="155"/>
+      <c r="AS5" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="AT5" s="151"/>
-      <c r="AU5" s="151"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="151"/>
-      <c r="AX5" s="151"/>
-      <c r="AY5" s="151"/>
+      <c r="AT5" s="155"/>
+      <c r="AU5" s="155"/>
+      <c r="AV5" s="155"/>
+      <c r="AW5" s="155"/>
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="151" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="157"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="66" t="s">
         <v>387</v>
       </c>
@@ -9169,10 +11778,10 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="153" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="153"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="67" t="s">
         <v>388</v>
       </c>
@@ -9259,10 +11868,10 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="153" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="153"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="67" t="s">
         <v>390</v>
       </c>
@@ -9322,10 +11931,10 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="153"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="67" t="s">
         <v>391</v>
       </c>
@@ -9385,10 +11994,10 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="153"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="67" t="s">
         <v>392</v>
       </c>
@@ -9427,10 +12036,10 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="156" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="155"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="65" t="s">
         <v>393</v>
       </c>
@@ -9477,10 +12086,10 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
@@ -9501,10 +12110,10 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="151"/>
+      <c r="B14" s="155"/>
       <c r="X14" t="s">
         <v>329</v>
       </c>
@@ -9635,11 +12244,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="U5:AA5"/>
     <mergeCell ref="AC5:AI5"/>
@@ -9651,6 +12255,11 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9695,31 +12304,31 @@
       <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -9763,16 +12372,16 @@
         <v>374</v>
       </c>
       <c r="N9" s="136"/>
-      <c r="O9" s="75" t="s">
+      <c r="O9" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P9" s="103"/>
+      <c r="P9" s="123"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="137"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="81"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="124"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -9780,7 +12389,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -9788,7 +12397,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -10099,10 +12708,10 @@
         <v>374</v>
       </c>
       <c r="N56" s="136"/>
-      <c r="O56" s="75" t="s">
+      <c r="O56" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P56" s="103"/>
+      <c r="P56" s="123"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -10111,8 +12720,8 @@
       </c>
       <c r="M57" s="137"/>
       <c r="N57" s="138"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="81"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="124"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -10630,16 +13239,16 @@
         <v>374</v>
       </c>
       <c r="N106" s="136"/>
-      <c r="O106" s="75" t="s">
+      <c r="O106" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="P106" s="103"/>
+      <c r="P106" s="123"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="137"/>
       <c r="N107" s="138"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="81"/>
+      <c r="O107" s="121"/>
+      <c r="P107" s="124"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -10811,6 +13420,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -10818,11 +13432,6 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11300,11 +13909,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11514,11 +14123,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11626,8 +14235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11658,11 +14267,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
@@ -11886,5 +14495,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github7\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908BB02-2D91-4BD7-9A2D-86974C845CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A368F-C438-49A8-9F1D-1B20929A73AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
@@ -5556,6 +5556,108 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5646,108 +5748,6 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5796,25 +5796,25 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10104,637 +10104,616 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="82"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="97" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="98"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="132"/>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="100"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="134"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="93" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="97" t="s">
+      <c r="E13" s="128"/>
+      <c r="F13" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="98"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="132"/>
     </row>
     <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="100"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="134"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93" t="s">
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="97" t="s">
+      <c r="E15" s="128"/>
+      <c r="F15" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="98"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="132"/>
     </row>
     <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="100"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="134"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="97" t="s">
+      <c r="E17" s="128"/>
+      <c r="F17" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="98"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="132"/>
     </row>
     <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="100"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="134"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="97" t="s">
+      <c r="E19" s="128"/>
+      <c r="F19" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="98"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="132"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="100"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
     </row>
     <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="119" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="131" t="s">
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="119" t="s">
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="123"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="103"/>
     </row>
     <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="126"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="104"/>
     </row>
     <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="115" t="s">
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="131" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="119" t="s">
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="123"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="103"/>
     </row>
     <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="124"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="119" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="127" t="s">
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="115" t="s">
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="79" t="s">
         <v>371</v>
       </c>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="125"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
     </row>
     <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="126"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="104"/>
     </row>
     <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="115" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="131" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="119" t="s">
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="123"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="103"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="124"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="119" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="127" t="s">
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="115" t="s">
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="125"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="124"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -10748,6 +10727,27 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10801,11 +10801,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11008,11 +11008,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -11130,16 +11130,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11170,16 +11170,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -11548,16 +11548,16 @@
         <v>374</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="E3" s="64" t="s">
@@ -11587,66 +11587,66 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="M5" s="155" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="M5" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="U5" s="155" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="U5" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AC5" s="155" t="s">
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AC5" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AK5" s="155" t="s">
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AK5" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="AL5" s="155"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="155"/>
-      <c r="AO5" s="155"/>
-      <c r="AP5" s="155"/>
-      <c r="AQ5" s="155"/>
-      <c r="AS5" s="155" t="s">
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AS5" s="151" t="s">
         <v>389</v>
       </c>
-      <c r="AT5" s="155"/>
-      <c r="AU5" s="155"/>
-      <c r="AV5" s="155"/>
-      <c r="AW5" s="155"/>
-      <c r="AX5" s="155"/>
-      <c r="AY5" s="155"/>
+      <c r="AT5" s="151"/>
+      <c r="AU5" s="151"/>
+      <c r="AV5" s="151"/>
+      <c r="AW5" s="151"/>
+      <c r="AX5" s="151"/>
+      <c r="AY5" s="151"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="152"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="66" t="s">
         <v>387</v>
       </c>
@@ -11778,10 +11778,10 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="152" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="154"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="67" t="s">
         <v>388</v>
       </c>
@@ -11868,10 +11868,10 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="152" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="67" t="s">
         <v>390</v>
       </c>
@@ -11931,10 +11931,10 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="152" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="154"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="67" t="s">
         <v>391</v>
       </c>
@@ -11994,10 +11994,10 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="154"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="67" t="s">
         <v>392</v>
       </c>
@@ -12036,10 +12036,10 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="154" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="157"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="65" t="s">
         <v>393</v>
       </c>
@@ -12086,10 +12086,10 @@
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="151"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
@@ -12110,10 +12110,10 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="151"/>
       <c r="X14" t="s">
         <v>329</v>
       </c>
@@ -12244,6 +12244,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="U5:AA5"/>
     <mergeCell ref="AC5:AI5"/>
@@ -12255,11 +12260,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12304,31 +12304,31 @@
       <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -12372,16 +12372,16 @@
         <v>374</v>
       </c>
       <c r="N9" s="136"/>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P9" s="123"/>
+      <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="137"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="124"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="81"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -12389,7 +12389,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -12397,7 +12397,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="155"/>
+      <c r="B15" s="151"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -12708,10 +12708,10 @@
         <v>374</v>
       </c>
       <c r="N56" s="136"/>
-      <c r="O56" s="119" t="s">
+      <c r="O56" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P56" s="123"/>
+      <c r="P56" s="103"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -12720,8 +12720,8 @@
       </c>
       <c r="M57" s="137"/>
       <c r="N57" s="138"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="124"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="81"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -13239,16 +13239,16 @@
         <v>374</v>
       </c>
       <c r="N106" s="136"/>
-      <c r="O106" s="119" t="s">
+      <c r="O106" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="P106" s="123"/>
+      <c r="P106" s="103"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="137"/>
       <c r="N107" s="138"/>
-      <c r="O107" s="121"/>
-      <c r="P107" s="124"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="81"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
@@ -13420,11 +13420,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -13432,6 +13427,11 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13909,11 +13909,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -14123,11 +14123,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -14235,8 +14235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14267,11 +14267,11 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">

--- a/仕様書途中段階.xlsx
+++ b/仕様書途中段階.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\授業用\グループ制作1\グループ制作1\github7\Sh2ot_Toso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\透走用ローカルリポジトリ\Sh2ot_Toso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A368F-C438-49A8-9F1D-1B20929A73AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042911A4-40ED-404C-A0D6-E2628D8B1BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" activeTab="8" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="9540" firstSheet="3" activeTab="3" xr2:uid="{D750BED7-3DDE-4AF3-806A-D32BEA649411}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="425">
   <si>
     <t>「透走」～仕様書～</t>
     <rPh sb="1" eb="2">
@@ -622,26 +622,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>環境音1</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境音2</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>選択カーソル</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -751,26 +731,6 @@
       <t>イドウ</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境音１</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境音２</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>オト</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4478,6 +4438,89 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の降る音</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の音</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉の開く音</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの足音</t>
+    <rPh sb="6" eb="8">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水滴の落ちる音</t>
+    <rPh sb="0" eb="2">
+      <t>スイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スライド式扉の開閉音</t>
+    <rPh sb="4" eb="6">
+      <t>シキトビラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミシミシ音</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5556,6 +5599,126 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5568,6 +5731,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5580,13 +5755,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5613,141 +5791,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5796,25 +5839,25 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10104,616 +10147,637 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
+    </row>
+    <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+    </row>
+    <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
+    </row>
+    <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
+    </row>
+    <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
+    </row>
+    <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="98"/>
+    </row>
+    <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="100"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
-    </row>
-    <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
-    </row>
-    <row r="6" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
-    </row>
-    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="114" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
-    </row>
-    <row r="8" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="119"/>
-    </row>
-    <row r="9" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="122"/>
-    </row>
-    <row r="11" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="127" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="98"/>
+    </row>
+    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="100"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="98"/>
+    </row>
+    <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="100"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="131" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="132"/>
-    </row>
-    <row r="12" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="134"/>
-    </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="131" t="s">
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="98"/>
+    </row>
+    <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="100"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="132"/>
-    </row>
-    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="134"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="131" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="132"/>
-    </row>
-    <row r="16" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="134"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="131" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="134"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="131" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="132"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="125"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="134"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="100"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+    </row>
+    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
+    </row>
+    <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="119" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="131" t="s">
+        <v>355</v>
+      </c>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="119" t="s">
+        <v>365</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="123"/>
+    </row>
+    <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="126"/>
+    </row>
+    <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="131" t="s">
+        <v>356</v>
+      </c>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="123"/>
+    </row>
+    <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="124"/>
+    </row>
+    <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="111" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="127" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="115" t="s">
+        <v>367</v>
+      </c>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="125"/>
+    </row>
+    <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="126"/>
+    </row>
+    <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-    </row>
-    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-    </row>
-    <row r="25" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="71" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="131" t="s">
+        <v>358</v>
+      </c>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="119" t="s">
+        <v>368</v>
+      </c>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="123"/>
+    </row>
+    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="124"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B33" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="75" t="s">
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="119" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="86" t="s">
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="127" t="s">
         <v>359</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="75" t="s">
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="103"/>
-    </row>
-    <row r="26" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="104"/>
-    </row>
-    <row r="27" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="96" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="79" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="103"/>
-    </row>
-    <row r="28" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="81"/>
-    </row>
-    <row r="29" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="79" t="s">
-        <v>371</v>
-      </c>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
-    </row>
-    <row r="30" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="104"/>
-    </row>
-    <row r="31" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="103"/>
-    </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="81"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="80"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="125"/>
     </row>
     <row r="34" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="81"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="B23:Q24"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="N25:Q26"/>
     <mergeCell ref="B3:Q6"/>
     <mergeCell ref="B7:Q10"/>
     <mergeCell ref="B11:C20"/>
@@ -10727,27 +10791,6 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B23:Q24"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="N25:Q26"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="N33:Q34"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J25:M26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10786,11 +10829,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D1" s="178"/>
     </row>
@@ -10801,163 +10844,163 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" t="s">
         <v>255</v>
-      </c>
-      <c r="E25" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" t="s">
         <v>256</v>
-      </c>
-      <c r="E26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" t="s">
         <v>257</v>
-      </c>
-      <c r="E27" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" t="s">
         <v>258</v>
-      </c>
-      <c r="E28" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -10993,11 +11036,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D1" s="178"/>
     </row>
@@ -11008,97 +11051,97 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -11127,19 +11170,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="103"/>
+      <c r="C1" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11167,24 +11210,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="103"/>
+      <c r="C1" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -11214,7 +11257,7 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
@@ -11329,7 +11372,7 @@
     <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C15" s="146"/>
       <c r="D15" s="146"/>
@@ -11359,7 +11402,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="139" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
@@ -11493,8 +11536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7091F6-5613-4C99-BD35-16C36D26F2C7}">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11529,7 +11572,7 @@
     <col min="31" max="31" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
     <col min="33" max="33" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" customWidth="1"/>
     <col min="38" max="38" width="8.796875" customWidth="1"/>
@@ -11545,23 +11588,23 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A1" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="136"/>
-      <c r="C1" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="103"/>
+      <c r="C1" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="137"/>
       <c r="B2" s="138"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="E3" s="64" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="64"/>
@@ -11571,93 +11614,93 @@
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC3" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK3" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS3" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="U3" s="64" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC3" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="AK3" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS3" s="64" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="5" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="M5" s="151" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="M5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="U5" s="151" t="s">
-        <v>297</v>
-      </c>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AC5" s="151" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="U5" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AC5" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AK5" s="151" t="s">
-        <v>363</v>
-      </c>
-      <c r="AL5" s="151"/>
-      <c r="AM5" s="151"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AS5" s="151" t="s">
-        <v>389</v>
-      </c>
-      <c r="AT5" s="151"/>
-      <c r="AU5" s="151"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="151"/>
-      <c r="AX5" s="151"/>
-      <c r="AY5" s="151"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AK5" s="155" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL5" s="155"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="155"/>
+      <c r="AP5" s="155"/>
+      <c r="AQ5" s="155"/>
+      <c r="AS5" s="155" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT5" s="155"/>
+      <c r="AU5" s="155"/>
+      <c r="AV5" s="155"/>
+      <c r="AW5" s="155"/>
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A6" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="B6" s="157"/>
+      <c r="A6" s="151" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="152"/>
       <c r="C6" s="66" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>78</v>
@@ -11675,10 +11718,10 @@
         <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
         <v>78</v>
@@ -11696,10 +11739,10 @@
         <v>77</v>
       </c>
       <c r="V6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
         <v>78</v>
@@ -11717,10 +11760,10 @@
         <v>77</v>
       </c>
       <c r="AD6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF6" t="s">
         <v>78</v>
@@ -11738,10 +11781,10 @@
         <v>77</v>
       </c>
       <c r="AL6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AM6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AN6" t="s">
         <v>78</v>
@@ -11759,10 +11802,10 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AU6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AV6" t="s">
         <v>78</v>
@@ -11778,15 +11821,15 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A7" s="152" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="153"/>
+      <c r="A7" s="153" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="154"/>
       <c r="C7" s="67" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -11804,10 +11847,10 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -11816,28 +11859,28 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
         <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Z7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AA7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AC7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -11846,19 +11889,19 @@
         <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AH7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AI7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -11868,15 +11911,15 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A8" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="153"/>
+      <c r="A8" s="153" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="154"/>
       <c r="C8" s="67" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -11885,13 +11928,13 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -11903,13 +11946,13 @@
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AC8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -11918,10 +11961,13 @@
         <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>421</v>
       </c>
       <c r="AK8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AL8">
         <v>1</v>
@@ -11931,15 +11977,15 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A9" s="152" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="153"/>
+      <c r="A9" s="153" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="154"/>
       <c r="C9" s="67" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -11948,10 +11994,10 @@
         <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -11966,10 +12012,10 @@
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="X9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AC9" t="s">
         <v>15</v>
@@ -11981,10 +12027,13 @@
         <v>200</v>
       </c>
       <c r="AF9" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>422</v>
       </c>
       <c r="AK9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL9">
         <v>1</v>
@@ -11994,15 +12043,18 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A10" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" s="153"/>
+      <c r="A10" s="153" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="154"/>
       <c r="C10" s="67" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>418</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -12016,11 +12068,8 @@
       <c r="P10" t="s">
         <v>6</v>
       </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
       <c r="X10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AC10" t="s">
         <v>17</v>
@@ -12032,25 +12081,31 @@
         <v>30</v>
       </c>
       <c r="AF10" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="154" t="s">
-        <v>386</v>
-      </c>
-      <c r="B11" s="155"/>
+      <c r="A11" s="156" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="157"/>
       <c r="C11" s="65" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="J11" t="s">
+        <v>420</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="X11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AC11" t="s">
         <v>16</v>
@@ -12062,7 +12117,10 @@
         <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.45">
@@ -12070,10 +12128,10 @@
         <v>8</v>
       </c>
       <c r="X12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AC12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -12082,19 +12140,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A13" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="151"/>
+      <c r="A13" s="155" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="155"/>
       <c r="P13" t="s">
         <v>9</v>
       </c>
       <c r="X13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AC13" t="s">
         <v>27</v>
@@ -12106,19 +12164,19 @@
         <v>8</v>
       </c>
       <c r="AF13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A14" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="151"/>
+      <c r="A14" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="155"/>
       <c r="X14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AC14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -12127,7 +12185,7 @@
         <v>8</v>
       </c>
       <c r="AF14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.45">
@@ -12141,12 +12199,12 @@
         <v>2</v>
       </c>
       <c r="AF15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.45">
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AD16">
         <v>6</v>
@@ -12155,7 +12213,7 @@
         <v>60</v>
       </c>
       <c r="AF16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="29:32" x14ac:dyDescent="0.45">
@@ -12169,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="29:32" x14ac:dyDescent="0.45">
@@ -12183,12 +12241,12 @@
         <v>5</v>
       </c>
       <c r="AF18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="29:32" x14ac:dyDescent="0.45">
       <c r="AC19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD19">
         <v>3</v>
@@ -12197,7 +12255,7 @@
         <v>30</v>
       </c>
       <c r="AF19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="29:32" x14ac:dyDescent="0.45">
@@ -12211,12 +12269,12 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="29:32" x14ac:dyDescent="0.45">
       <c r="AC21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -12225,12 +12283,12 @@
         <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="29:32" x14ac:dyDescent="0.45">
       <c r="AC22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -12239,16 +12297,11 @@
         <v>300</v>
       </c>
       <c r="AF22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="U5:AA5"/>
     <mergeCell ref="AC5:AI5"/>
@@ -12260,6 +12313,11 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="M5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12304,35 +12362,35 @@
       <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12360,28 +12418,28 @@
         <v>74</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="M9" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N9" s="136"/>
-      <c r="O9" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="P9" s="103"/>
+      <c r="O9" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="123"/>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M10" s="137"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="81"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="124"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -12389,7 +12447,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -12397,7 +12455,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -12407,7 +12465,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
@@ -12453,30 +12511,30 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="36" x14ac:dyDescent="0.45">
@@ -12532,7 +12590,7 @@
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -12548,72 +12606,72 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L44" s="54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="52" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="51" t="s">
         <v>207</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>211</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L45" s="46"/>
       <c r="M45" s="8"/>
       <c r="N45" s="53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F46" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H47" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -12621,62 +12679,62 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="H48" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D49" s="2"/>
       <c r="H49" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="46"/>
       <c r="K49" s="47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L49" s="46"/>
       <c r="M49" s="8"/>
       <c r="N49" s="53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D50" s="2"/>
       <c r="H50" s="55" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12705,13 +12763,13 @@
         <v>16</v>
       </c>
       <c r="M56" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N56" s="136"/>
-      <c r="O56" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="P56" s="103"/>
+      <c r="O56" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="P56" s="123"/>
     </row>
     <row r="57" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D57" s="2"/>
@@ -12720,8 +12778,8 @@
       </c>
       <c r="M57" s="137"/>
       <c r="N57" s="138"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="81"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="124"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D58" s="2"/>
@@ -13076,7 +13134,7 @@
     </row>
     <row r="88" spans="4:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D88" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E88" t="s">
         <v>62</v>
@@ -13085,7 +13143,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13104,7 +13162,7 @@
       <c r="I90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="57" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.45">
@@ -13197,10 +13255,10 @@
     </row>
     <row r="98" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E98" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="58" t="s">
@@ -13214,7 +13272,7 @@
     </row>
     <row r="99" spans="4:16" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8"/>
@@ -13236,23 +13294,23 @@
     <row r="105" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="106" spans="4:16" x14ac:dyDescent="0.45">
       <c r="M106" s="135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N106" s="136"/>
-      <c r="O106" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="P106" s="103"/>
+      <c r="O106" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="P106" s="123"/>
     </row>
     <row r="107" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M107" s="137"/>
       <c r="N107" s="138"/>
-      <c r="O107" s="77"/>
-      <c r="P107" s="81"/>
+      <c r="O107" s="121"/>
+      <c r="P107" s="124"/>
     </row>
     <row r="111" spans="4:16" ht="36" x14ac:dyDescent="0.45">
       <c r="D111" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
@@ -13266,14 +13324,14 @@
         <v>16</v>
       </c>
       <c r="H112" s="163" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I112" s="164"/>
       <c r="J112" s="164"/>
       <c r="K112" s="164"/>
       <c r="L112" s="164"/>
       <c r="M112" s="167" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N112" s="168"/>
     </row>
@@ -13309,7 +13367,7 @@
         <v>22</v>
       </c>
       <c r="H115" s="171" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I115" s="172"/>
       <c r="J115" s="172"/>
@@ -13335,7 +13393,7 @@
         <v>25</v>
       </c>
       <c r="G117" s="63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="8"/>
@@ -13347,10 +13405,10 @@
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H118" s="59"/>
       <c r="I118" s="8"/>
@@ -13362,7 +13420,7 @@
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F119" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H119" s="59"/>
       <c r="I119" s="8"/>
@@ -13374,10 +13432,10 @@
     </row>
     <row r="120" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F120" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H120" s="158" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I120" s="159"/>
       <c r="J120" s="159"/>
@@ -13388,7 +13446,7 @@
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F121" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H121" s="158"/>
       <c r="I121" s="159"/>
@@ -13400,7 +13458,7 @@
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F122" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H122" s="160"/>
       <c r="I122" s="161"/>
@@ -13412,14 +13470,19 @@
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.45">
       <c r="F123" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N123" s="63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="M106:N107"/>
+    <mergeCell ref="O106:P107"/>
     <mergeCell ref="H120:L122"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B14:B15"/>
@@ -13427,11 +13490,6 @@
     <mergeCell ref="M112:N115"/>
     <mergeCell ref="H115:L115"/>
     <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="O106:P107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13464,11 +13522,11 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D1" s="174"/>
       <c r="E1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F1" s="178"/>
     </row>
@@ -13480,31 +13538,31 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="S6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>15</v>
@@ -13522,15 +13580,15 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -13539,12 +13597,12 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>15</v>
@@ -13560,15 +13618,15 @@
         <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>15</v>
@@ -13578,89 +13636,89 @@
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I11" s="44" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D13" s="40"/>
       <c r="S13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2"/>
       <c r="S14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C17" s="8"/>
       <c r="G17" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>15</v>
@@ -13678,16 +13736,16 @@
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D19" s="8"/>
       <c r="G19" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -13696,12 +13754,12 @@
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>15</v>
@@ -13717,12 +13775,12 @@
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I21" s="44" t="s">
         <v>15</v>
@@ -13732,12 +13790,12 @@
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -13745,55 +13803,55 @@
         <v>15</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="S24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G28" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
@@ -13815,7 +13873,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
       <c r="G30" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -13853,7 +13911,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33" s="44" t="s">
         <v>15</v>
@@ -13894,11 +13952,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D1" s="178"/>
     </row>
@@ -13909,168 +13967,168 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" t="s">
         <v>333</v>
       </c>
-      <c r="E14" t="s">
-        <v>337</v>
-      </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
         <v>343</v>
       </c>
-      <c r="E18" t="s">
-        <v>347</v>
-      </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
         <v>344</v>
       </c>
-      <c r="E19" t="s">
-        <v>348</v>
-      </c>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" t="s">
         <v>345</v>
       </c>
-      <c r="E20" t="s">
-        <v>349</v>
-      </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -14108,11 +14166,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D1" s="178"/>
     </row>
@@ -14123,97 +14181,97 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -14235,7 +14293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC28ACC-995B-486A-9BB9-A5EB7C29107C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -14252,11 +14310,11 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="177" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D1" s="178"/>
     </row>
@@ -14267,220 +14325,220 @@
       <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7">
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7">
         <v>5</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="17">
         <v>6</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="36" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
